--- a/resources/database/data/downloads/db_download - staging data.xlsx
+++ b/resources/database/data/downloads/db_download - staging data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User Files\Development\_htdocs\anidb\resources\database\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User Files\Development\_htdocs\anidb\resources\database\data\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="24000" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="24000" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="372">
   <si>
     <t>id</t>
   </si>
@@ -35,9 +35,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>remarks</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>watched</t>
   </si>
   <si>
-    <t>Uncategorized</t>
-  </si>
-  <si>
     <t>Akane Iro Ni Somaru Saka</t>
   </si>
   <si>
@@ -371,9 +365,6 @@
     <t>low prio</t>
   </si>
   <si>
-    <t>Winter 2013</t>
-  </si>
-  <si>
     <t>Boku ha Tomodacchi ga Sukunai NEXT</t>
   </si>
   <si>
@@ -407,12 +398,6 @@
     <t>Vivid Red Operation</t>
   </si>
   <si>
-    <t>Winter 2014</t>
-  </si>
-  <si>
-    <t>Winter 2015</t>
-  </si>
-  <si>
     <t>Gj-bu Chutou-bu</t>
   </si>
   <si>
@@ -629,15 +614,6 @@
     <t>Uchouten Kazoku</t>
   </si>
   <si>
-    <t>Summer 2013</t>
-  </si>
-  <si>
-    <t>Spring 2013</t>
-  </si>
-  <si>
-    <t>Spring 2014</t>
-  </si>
-  <si>
     <t>Kyouka no Kanata</t>
   </si>
   <si>
@@ -725,9 +701,6 @@
     <t>IS : Infinite Stratos 2</t>
   </si>
   <si>
-    <t>Fall 2013</t>
-  </si>
-  <si>
     <t>Nisekoi</t>
   </si>
   <si>
@@ -980,12 +953,6 @@
     <t>Mahoutsukai</t>
   </si>
   <si>
-    <t>Summer 2014</t>
-  </si>
-  <si>
-    <t>Fall 2014</t>
-  </si>
-  <si>
     <t>Chuunibyou demo Koi ga Shitai II</t>
   </si>
   <si>
@@ -1169,7 +1136,10 @@
     <t>Hibike! Euphonium</t>
   </si>
   <si>
-    <t>Spring 2015</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>season</t>
   </si>
 </sst>
 </file>
@@ -1521,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I352"/>
+  <dimension ref="A1:J352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="C334" sqref="C334"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,11 +1502,12 @@
     <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1547,78 +1518,75 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>371</v>
       </c>
       <c r="F1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1626,16 +1594,13 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1643,22 +1608,19 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1666,22 +1628,19 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1689,22 +1648,19 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1712,16 +1668,13 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1729,16 +1682,13 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1746,16 +1696,13 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1763,16 +1710,13 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1780,16 +1724,13 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1797,16 +1738,13 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1814,16 +1752,13 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1831,16 +1766,13 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1848,16 +1780,13 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1865,16 +1794,13 @@
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1882,16 +1808,13 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1899,16 +1822,13 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1916,16 +1836,13 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1933,16 +1850,13 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1950,16 +1864,13 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1967,16 +1878,13 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1984,16 +1892,13 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2001,16 +1906,13 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2018,16 +1920,13 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2035,16 +1934,13 @@
       <c r="D28">
         <v>2</v>
       </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2052,16 +1948,13 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2069,16 +1962,13 @@
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2086,16 +1976,13 @@
       <c r="D31">
         <v>2</v>
       </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2103,16 +1990,13 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2120,16 +2004,13 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2137,16 +2018,13 @@
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2154,16 +2032,13 @@
       <c r="D35">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2171,16 +2046,13 @@
       <c r="D36">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2188,16 +2060,13 @@
       <c r="D37">
         <v>2</v>
       </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2205,16 +2074,13 @@
       <c r="D38">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2222,16 +2088,13 @@
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2239,16 +2102,13 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2256,16 +2116,13 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2273,16 +2130,13 @@
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2290,16 +2144,13 @@
       <c r="D43">
         <v>2</v>
       </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2307,16 +2158,13 @@
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2324,16 +2172,13 @@
       <c r="D45">
         <v>2</v>
       </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2341,16 +2186,13 @@
       <c r="D46">
         <v>2</v>
       </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2358,16 +2200,13 @@
       <c r="D47">
         <v>2</v>
       </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2375,16 +2214,13 @@
       <c r="D48">
         <v>2</v>
       </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2392,16 +2228,13 @@
       <c r="D49">
         <v>2</v>
       </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2409,16 +2242,13 @@
       <c r="D50">
         <v>2</v>
       </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2426,16 +2256,13 @@
       <c r="D51">
         <v>2</v>
       </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2443,16 +2270,13 @@
       <c r="D52">
         <v>2</v>
       </c>
-      <c r="E52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2460,16 +2284,13 @@
       <c r="D53">
         <v>2</v>
       </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2477,16 +2298,13 @@
       <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2494,16 +2312,13 @@
       <c r="D55">
         <v>2</v>
       </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2511,16 +2326,13 @@
       <c r="D56">
         <v>2</v>
       </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2528,16 +2340,13 @@
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2545,16 +2354,13 @@
       <c r="D58">
         <v>2</v>
       </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2562,16 +2368,13 @@
       <c r="D59">
         <v>2</v>
       </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2579,16 +2382,13 @@
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2596,16 +2396,13 @@
       <c r="D61">
         <v>2</v>
       </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2613,16 +2410,13 @@
       <c r="D62">
         <v>2</v>
       </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2630,16 +2424,13 @@
       <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2647,16 +2438,13 @@
       <c r="D64">
         <v>2</v>
       </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2664,16 +2452,13 @@
       <c r="D65">
         <v>2</v>
       </c>
-      <c r="E65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2681,16 +2466,13 @@
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2698,16 +2480,13 @@
       <c r="D67">
         <v>2</v>
       </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2715,16 +2494,13 @@
       <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2732,16 +2508,13 @@
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2749,16 +2522,13 @@
       <c r="D70">
         <v>2</v>
       </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2766,16 +2536,13 @@
       <c r="D71">
         <v>2</v>
       </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2783,16 +2550,13 @@
       <c r="D72">
         <v>2</v>
       </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2800,16 +2564,13 @@
       <c r="D73">
         <v>2</v>
       </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -2817,16 +2578,13 @@
       <c r="D74">
         <v>2</v>
       </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2834,16 +2592,13 @@
       <c r="D75">
         <v>2</v>
       </c>
-      <c r="E75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2851,16 +2606,13 @@
       <c r="D76">
         <v>2</v>
       </c>
-      <c r="E76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2868,16 +2620,13 @@
       <c r="D77">
         <v>2</v>
       </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2885,16 +2634,13 @@
       <c r="D78">
         <v>2</v>
       </c>
-      <c r="E78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -2902,16 +2648,13 @@
       <c r="D79">
         <v>2</v>
       </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2919,16 +2662,13 @@
       <c r="D80">
         <v>2</v>
       </c>
-      <c r="E80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2936,16 +2676,13 @@
       <c r="D81">
         <v>2</v>
       </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2953,16 +2690,13 @@
       <c r="D82">
         <v>2</v>
       </c>
-      <c r="E82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2970,16 +2704,13 @@
       <c r="D83">
         <v>2</v>
       </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2987,16 +2718,13 @@
       <c r="D84">
         <v>2</v>
       </c>
-      <c r="E84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3004,16 +2732,13 @@
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -3021,16 +2746,13 @@
       <c r="D86">
         <v>2</v>
       </c>
-      <c r="E86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -3038,16 +2760,13 @@
       <c r="D87">
         <v>2</v>
       </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -3055,16 +2774,13 @@
       <c r="D88">
         <v>2</v>
       </c>
-      <c r="E88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -3072,16 +2788,13 @@
       <c r="D89">
         <v>2</v>
       </c>
-      <c r="E89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3089,16 +2802,13 @@
       <c r="D90">
         <v>2</v>
       </c>
-      <c r="E90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -3106,16 +2816,13 @@
       <c r="D91">
         <v>2</v>
       </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -3123,16 +2830,13 @@
       <c r="D92">
         <v>2</v>
       </c>
-      <c r="E92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -3140,16 +2844,13 @@
       <c r="D93">
         <v>2</v>
       </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -3157,16 +2858,13 @@
       <c r="D94">
         <v>2</v>
       </c>
-      <c r="E94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3174,16 +2872,13 @@
       <c r="D95">
         <v>2</v>
       </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -3191,16 +2886,13 @@
       <c r="D96">
         <v>2</v>
       </c>
-      <c r="E96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3208,16 +2900,13 @@
       <c r="D97">
         <v>2</v>
       </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -3225,16 +2914,13 @@
       <c r="D98">
         <v>2</v>
       </c>
-      <c r="E98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -3242,16 +2928,13 @@
       <c r="D99">
         <v>2</v>
       </c>
-      <c r="E99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -3259,16 +2942,13 @@
       <c r="D100">
         <v>2</v>
       </c>
-      <c r="E100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -3276,16 +2956,13 @@
       <c r="D101">
         <v>2</v>
       </c>
-      <c r="E101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -3293,16 +2970,13 @@
       <c r="D102">
         <v>2</v>
       </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -3310,16 +2984,13 @@
       <c r="D103">
         <v>2</v>
       </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -3327,16 +2998,13 @@
       <c r="D104">
         <v>2</v>
       </c>
-      <c r="E104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -3344,16 +3012,19 @@
       <c r="D105">
         <v>2</v>
       </c>
-      <c r="E105" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -3361,16 +3032,19 @@
       <c r="D106">
         <v>2</v>
       </c>
-      <c r="E106" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -3378,16 +3052,19 @@
       <c r="D107">
         <v>2</v>
       </c>
-      <c r="E107" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -3395,16 +3072,19 @@
       <c r="D108">
         <v>2</v>
       </c>
-      <c r="E108" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -3412,16 +3092,19 @@
       <c r="D109">
         <v>2</v>
       </c>
-      <c r="E109" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -3429,16 +3112,19 @@
       <c r="D110">
         <v>2</v>
       </c>
-      <c r="E110" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -3446,16 +3132,19 @@
       <c r="D111">
         <v>2</v>
       </c>
-      <c r="E111" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -3463,16 +3152,19 @@
       <c r="D112">
         <v>2</v>
       </c>
-      <c r="E112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C113">
         <v>3</v>
@@ -3480,16 +3172,19 @@
       <c r="D113">
         <v>2</v>
       </c>
-      <c r="E113" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -3497,16 +3192,19 @@
       <c r="D114">
         <v>2</v>
       </c>
-      <c r="E114" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -3514,16 +3212,19 @@
       <c r="D115">
         <v>3</v>
       </c>
-      <c r="E115" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -3531,16 +3232,19 @@
       <c r="D116">
         <v>2</v>
       </c>
-      <c r="E116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3548,16 +3252,19 @@
       <c r="D117">
         <v>2</v>
       </c>
-      <c r="E117" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -3565,16 +3272,19 @@
       <c r="D118">
         <v>2</v>
       </c>
-      <c r="E118" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -3582,16 +3292,19 @@
       <c r="D119">
         <v>2</v>
       </c>
-      <c r="E119" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -3599,16 +3312,19 @@
       <c r="D120">
         <v>2</v>
       </c>
-      <c r="E120" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3616,16 +3332,19 @@
       <c r="D121">
         <v>2</v>
       </c>
-      <c r="E121" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3633,16 +3352,19 @@
       <c r="D122">
         <v>2</v>
       </c>
-      <c r="E122" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3650,16 +3372,19 @@
       <c r="D123">
         <v>2</v>
       </c>
-      <c r="E123" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3667,16 +3392,19 @@
       <c r="D124">
         <v>2</v>
       </c>
-      <c r="E124" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3684,16 +3412,19 @@
       <c r="D125">
         <v>2</v>
       </c>
-      <c r="E125" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -3701,16 +3432,19 @@
       <c r="D126">
         <v>2</v>
       </c>
-      <c r="E126" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3718,16 +3452,19 @@
       <c r="D127">
         <v>2</v>
       </c>
-      <c r="E127" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3735,16 +3472,19 @@
       <c r="D128">
         <v>2</v>
       </c>
-      <c r="E128" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3752,16 +3492,19 @@
       <c r="D129">
         <v>2</v>
       </c>
-      <c r="E129" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -3769,16 +3512,19 @@
       <c r="D130">
         <v>2</v>
       </c>
-      <c r="E130" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3786,16 +3532,19 @@
       <c r="D131">
         <v>2</v>
       </c>
-      <c r="E131" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -3803,16 +3552,19 @@
       <c r="D132">
         <v>2</v>
       </c>
-      <c r="E132" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3820,16 +3572,19 @@
       <c r="D133">
         <v>2</v>
       </c>
-      <c r="E133" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C134">
         <v>3</v>
@@ -3837,16 +3592,19 @@
       <c r="D134">
         <v>3</v>
       </c>
-      <c r="E134" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C135">
         <v>3</v>
@@ -3854,16 +3612,19 @@
       <c r="D135">
         <v>3</v>
       </c>
-      <c r="E135" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C136">
         <v>3</v>
@@ -3871,16 +3632,19 @@
       <c r="D136">
         <v>3</v>
       </c>
-      <c r="E136" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C137">
         <v>3</v>
@@ -3888,16 +3652,19 @@
       <c r="D137">
         <v>2</v>
       </c>
-      <c r="E137" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C138">
         <v>3</v>
@@ -3905,16 +3672,19 @@
       <c r="D138">
         <v>2</v>
       </c>
-      <c r="E138" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -3922,16 +3692,19 @@
       <c r="D139">
         <v>2</v>
       </c>
-      <c r="E139" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C140">
         <v>3</v>
@@ -3939,16 +3712,19 @@
       <c r="D140">
         <v>2</v>
       </c>
-      <c r="E140" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C141">
         <v>3</v>
@@ -3956,16 +3732,19 @@
       <c r="D141">
         <v>2</v>
       </c>
-      <c r="E141" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C142">
         <v>3</v>
@@ -3973,16 +3752,19 @@
       <c r="D142">
         <v>2</v>
       </c>
-      <c r="E142" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C143">
         <v>3</v>
@@ -3990,16 +3772,19 @@
       <c r="D143">
         <v>1</v>
       </c>
-      <c r="E143" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -4007,16 +3792,19 @@
       <c r="D144">
         <v>3</v>
       </c>
-      <c r="E144" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -4024,16 +3812,19 @@
       <c r="D145">
         <v>3</v>
       </c>
-      <c r="E145" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -4041,16 +3832,19 @@
       <c r="D146">
         <v>1</v>
       </c>
-      <c r="E146" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -4058,16 +3852,19 @@
       <c r="D147">
         <v>2</v>
       </c>
-      <c r="E147" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -4075,16 +3872,19 @@
       <c r="D148">
         <v>2</v>
       </c>
-      <c r="E148" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -4092,16 +3892,19 @@
       <c r="D149">
         <v>2</v>
       </c>
-      <c r="E149" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -4109,16 +3912,19 @@
       <c r="D150">
         <v>2</v>
       </c>
-      <c r="E150" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -4126,16 +3932,19 @@
       <c r="D151">
         <v>2</v>
       </c>
-      <c r="E151" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -4143,16 +3952,19 @@
       <c r="D152">
         <v>2</v>
       </c>
-      <c r="E152" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -4160,16 +3972,19 @@
       <c r="D153">
         <v>2</v>
       </c>
-      <c r="E153" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -4177,16 +3992,19 @@
       <c r="D154">
         <v>2</v>
       </c>
-      <c r="E154" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -4194,16 +4012,19 @@
       <c r="D155">
         <v>1</v>
       </c>
-      <c r="E155" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -4211,16 +4032,19 @@
       <c r="D156">
         <v>3</v>
       </c>
-      <c r="E156" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C157">
         <v>3</v>
@@ -4228,19 +4052,22 @@
       <c r="D157">
         <v>3</v>
       </c>
-      <c r="E157" t="s">
-        <v>201</v>
-      </c>
-      <c r="F157" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>2013</v>
+      </c>
+      <c r="G157" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C158">
         <v>3</v>
@@ -4248,19 +4075,22 @@
       <c r="D158">
         <v>3</v>
       </c>
-      <c r="E158" t="s">
-        <v>201</v>
-      </c>
-      <c r="F158" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>2013</v>
+      </c>
+      <c r="G158" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C159">
         <v>3</v>
@@ -4268,16 +4098,19 @@
       <c r="D159">
         <v>3</v>
       </c>
-      <c r="E159" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C160">
         <v>3</v>
@@ -4285,16 +4118,19 @@
       <c r="D160">
         <v>2</v>
       </c>
-      <c r="E160" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C161">
         <v>3</v>
@@ -4302,16 +4138,19 @@
       <c r="D161">
         <v>2</v>
       </c>
-      <c r="E161" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C162">
         <v>3</v>
@@ -4319,16 +4158,19 @@
       <c r="D162">
         <v>2</v>
       </c>
-      <c r="E162" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -4336,16 +4178,19 @@
       <c r="D163">
         <v>2</v>
       </c>
-      <c r="E163" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C164">
         <v>3</v>
@@ -4353,16 +4198,19 @@
       <c r="D164">
         <v>2</v>
       </c>
-      <c r="E164" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C165">
         <v>3</v>
@@ -4370,16 +4218,19 @@
       <c r="D165">
         <v>1</v>
       </c>
-      <c r="E165" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C166">
         <v>3</v>
@@ -4387,16 +4238,19 @@
       <c r="D166">
         <v>2</v>
       </c>
-      <c r="E166" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C167">
         <v>3</v>
@@ -4404,16 +4258,19 @@
       <c r="D167">
         <v>2</v>
       </c>
-      <c r="E167" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C168">
         <v>3</v>
@@ -4421,16 +4278,19 @@
       <c r="D168">
         <v>2</v>
       </c>
-      <c r="E168" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -4438,16 +4298,19 @@
       <c r="D169">
         <v>3</v>
       </c>
-      <c r="E169" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -4455,16 +4318,19 @@
       <c r="D170">
         <v>2</v>
       </c>
-      <c r="E170" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -4472,19 +4338,22 @@
       <c r="D171">
         <v>2</v>
       </c>
-      <c r="E171" t="s">
-        <v>201</v>
-      </c>
-      <c r="F171" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>2013</v>
+      </c>
+      <c r="G171" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -4492,16 +4361,19 @@
       <c r="D172">
         <v>2</v>
       </c>
-      <c r="E172" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -4509,16 +4381,19 @@
       <c r="D173">
         <v>2</v>
       </c>
-      <c r="E173" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -4526,16 +4401,19 @@
       <c r="D174">
         <v>2</v>
       </c>
-      <c r="E174" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -4543,16 +4421,19 @@
       <c r="D175">
         <v>2</v>
       </c>
-      <c r="E175" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -4560,16 +4441,19 @@
       <c r="D176">
         <v>2</v>
       </c>
-      <c r="E176" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -4577,16 +4461,19 @@
       <c r="D177">
         <v>2</v>
       </c>
-      <c r="E177" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -4594,16 +4481,19 @@
       <c r="D178">
         <v>2</v>
       </c>
-      <c r="E178" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -4611,16 +4501,19 @@
       <c r="D179">
         <v>2</v>
       </c>
-      <c r="E179" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -4628,19 +4521,22 @@
       <c r="D180">
         <v>1</v>
       </c>
-      <c r="E180" t="s">
-        <v>201</v>
-      </c>
-      <c r="F180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>2013</v>
+      </c>
+      <c r="G180" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -4648,19 +4544,22 @@
       <c r="D181">
         <v>1</v>
       </c>
-      <c r="E181" t="s">
-        <v>201</v>
-      </c>
-      <c r="F181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181">
+        <v>2013</v>
+      </c>
+      <c r="G181" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -4668,16 +4567,19 @@
       <c r="D182">
         <v>1</v>
       </c>
-      <c r="E182" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C183">
         <v>3</v>
@@ -4685,16 +4587,19 @@
       <c r="D183">
         <v>3</v>
       </c>
-      <c r="E183" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C184">
         <v>3</v>
@@ -4702,16 +4607,19 @@
       <c r="D184">
         <v>3</v>
       </c>
-      <c r="E184" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>3</v>
+      </c>
+      <c r="F184">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C185">
         <v>3</v>
@@ -4719,16 +4627,19 @@
       <c r="D185">
         <v>3</v>
       </c>
-      <c r="E185" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="F185">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C186">
         <v>3</v>
@@ -4736,16 +4647,19 @@
       <c r="D186">
         <v>2</v>
       </c>
-      <c r="E186" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>3</v>
+      </c>
+      <c r="F186">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C187">
         <v>3</v>
@@ -4753,16 +4667,19 @@
       <c r="D187">
         <v>2</v>
       </c>
-      <c r="E187" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>3</v>
+      </c>
+      <c r="F187">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C188">
         <v>3</v>
@@ -4770,16 +4687,19 @@
       <c r="D188">
         <v>2</v>
       </c>
-      <c r="E188" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C189">
         <v>3</v>
@@ -4787,16 +4707,19 @@
       <c r="D189">
         <v>2</v>
       </c>
-      <c r="E189" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C190">
         <v>3</v>
@@ -4804,16 +4727,19 @@
       <c r="D190">
         <v>2</v>
       </c>
-      <c r="E190" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="F190">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C191">
         <v>3</v>
@@ -4821,16 +4747,19 @@
       <c r="D191">
         <v>2</v>
       </c>
-      <c r="E191" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>3</v>
+      </c>
+      <c r="F191">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C192">
         <v>3</v>
@@ -4838,16 +4767,19 @@
       <c r="D192">
         <v>2</v>
       </c>
-      <c r="E192" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="F192">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C193">
         <v>3</v>
@@ -4855,19 +4787,22 @@
       <c r="D193">
         <v>3</v>
       </c>
-      <c r="E193" t="s">
-        <v>233</v>
-      </c>
-      <c r="F193" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>3</v>
+      </c>
+      <c r="F193">
+        <v>2013</v>
+      </c>
+      <c r="G193" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C194">
         <v>3</v>
@@ -4875,16 +4810,19 @@
       <c r="D194">
         <v>2</v>
       </c>
-      <c r="E194" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C195">
         <v>2</v>
@@ -4892,16 +4830,19 @@
       <c r="D195">
         <v>2</v>
       </c>
-      <c r="E195" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>3</v>
+      </c>
+      <c r="F195">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -4909,16 +4850,19 @@
       <c r="D196">
         <v>2</v>
       </c>
-      <c r="E196" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="F196">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -4926,16 +4870,19 @@
       <c r="D197">
         <v>2</v>
       </c>
-      <c r="E197" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>3</v>
+      </c>
+      <c r="F197">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -4943,16 +4890,19 @@
       <c r="D198">
         <v>2</v>
       </c>
-      <c r="E198" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>3</v>
+      </c>
+      <c r="F198">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -4960,16 +4910,19 @@
       <c r="D199">
         <v>2</v>
       </c>
-      <c r="E199" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>3</v>
+      </c>
+      <c r="F199">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -4977,16 +4930,19 @@
       <c r="D200">
         <v>2</v>
       </c>
-      <c r="E200" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>3</v>
+      </c>
+      <c r="F200">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -4994,16 +4950,19 @@
       <c r="D201">
         <v>2</v>
       </c>
-      <c r="E201" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>3</v>
+      </c>
+      <c r="F201">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -5011,16 +4970,19 @@
       <c r="D202">
         <v>2</v>
       </c>
-      <c r="E202" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>3</v>
+      </c>
+      <c r="F202">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C203">
         <v>3</v>
@@ -5028,16 +4990,19 @@
       <c r="D203">
         <v>1</v>
       </c>
-      <c r="E203" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>3</v>
+      </c>
+      <c r="F203">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -5045,19 +5010,22 @@
       <c r="D204">
         <v>2</v>
       </c>
-      <c r="E204" t="s">
-        <v>233</v>
-      </c>
-      <c r="F204" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>3</v>
+      </c>
+      <c r="F204">
+        <v>2013</v>
+      </c>
+      <c r="G204" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -5065,19 +5033,22 @@
       <c r="D205">
         <v>2</v>
       </c>
-      <c r="E205" t="s">
-        <v>233</v>
-      </c>
-      <c r="F205" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>3</v>
+      </c>
+      <c r="F205">
+        <v>2013</v>
+      </c>
+      <c r="G205" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -5085,16 +5056,19 @@
       <c r="D206">
         <v>2</v>
       </c>
-      <c r="E206" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>3</v>
+      </c>
+      <c r="F206">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -5102,16 +5076,19 @@
       <c r="D207">
         <v>2</v>
       </c>
-      <c r="E207" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>3</v>
+      </c>
+      <c r="F207">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -5119,16 +5096,19 @@
       <c r="D208">
         <v>1</v>
       </c>
-      <c r="E208" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>3</v>
+      </c>
+      <c r="F208">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -5136,16 +5116,19 @@
       <c r="D209">
         <v>3</v>
       </c>
-      <c r="E209" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C210">
         <v>3</v>
@@ -5153,16 +5136,19 @@
       <c r="D210">
         <v>3</v>
       </c>
-      <c r="E210" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C211">
         <v>3</v>
@@ -5170,16 +5156,19 @@
       <c r="D211">
         <v>3</v>
       </c>
-      <c r="E211" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C212">
         <v>3</v>
@@ -5187,16 +5176,19 @@
       <c r="D212">
         <v>3</v>
       </c>
-      <c r="E212" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C213">
         <v>3</v>
@@ -5204,16 +5196,19 @@
       <c r="D213">
         <v>3</v>
       </c>
-      <c r="E213" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -5221,16 +5216,19 @@
       <c r="D214">
         <v>3</v>
       </c>
-      <c r="E214" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C215">
         <v>3</v>
@@ -5238,16 +5236,19 @@
       <c r="D215">
         <v>2</v>
       </c>
-      <c r="E215" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C216">
         <v>3</v>
@@ -5255,16 +5256,19 @@
       <c r="D216">
         <v>2</v>
       </c>
-      <c r="E216" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C217">
         <v>3</v>
@@ -5272,16 +5276,19 @@
       <c r="D217">
         <v>2</v>
       </c>
-      <c r="E217" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C218">
         <v>2</v>
@@ -5289,16 +5296,19 @@
       <c r="D218">
         <v>2</v>
       </c>
-      <c r="E218" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -5306,16 +5316,19 @@
       <c r="D219">
         <v>3</v>
       </c>
-      <c r="E219" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -5323,16 +5336,19 @@
       <c r="D220">
         <v>3</v>
       </c>
-      <c r="E220" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C221">
         <v>3</v>
@@ -5340,16 +5356,19 @@
       <c r="D221">
         <v>2</v>
       </c>
-      <c r="E221" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -5357,16 +5376,19 @@
       <c r="D222">
         <v>2</v>
       </c>
-      <c r="E222" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -5374,16 +5396,19 @@
       <c r="D223">
         <v>2</v>
       </c>
-      <c r="E223" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -5391,16 +5416,19 @@
       <c r="D224">
         <v>2</v>
       </c>
-      <c r="E224" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -5408,16 +5436,19 @@
       <c r="D225">
         <v>2</v>
       </c>
-      <c r="E225" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -5425,16 +5456,19 @@
       <c r="D226">
         <v>2</v>
       </c>
-      <c r="E226" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -5442,16 +5476,19 @@
       <c r="D227">
         <v>2</v>
       </c>
-      <c r="E227" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -5459,16 +5496,19 @@
       <c r="D228">
         <v>2</v>
       </c>
-      <c r="E228" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -5476,16 +5516,19 @@
       <c r="D229">
         <v>2</v>
       </c>
-      <c r="E229" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -5493,16 +5536,19 @@
       <c r="D230">
         <v>2</v>
       </c>
-      <c r="E230" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -5510,16 +5556,19 @@
       <c r="D231">
         <v>2</v>
       </c>
-      <c r="E231" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -5527,16 +5576,19 @@
       <c r="D232">
         <v>2</v>
       </c>
-      <c r="E232" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -5544,16 +5596,19 @@
       <c r="D233">
         <v>3</v>
       </c>
-      <c r="E233" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -5561,16 +5616,19 @@
       <c r="D234">
         <v>3</v>
       </c>
-      <c r="E234" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C235">
         <v>3</v>
@@ -5578,16 +5636,19 @@
       <c r="D235">
         <v>3</v>
       </c>
-      <c r="E235" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C236">
         <v>3</v>
@@ -5595,16 +5656,19 @@
       <c r="D236">
         <v>3</v>
       </c>
-      <c r="E236" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C237">
         <v>3</v>
@@ -5612,16 +5676,19 @@
       <c r="D237">
         <v>3</v>
       </c>
-      <c r="E237" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C238">
         <v>3</v>
@@ -5629,16 +5696,19 @@
       <c r="D238">
         <v>3</v>
       </c>
-      <c r="E238" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -5646,16 +5716,19 @@
       <c r="D239">
         <v>2</v>
       </c>
-      <c r="E239" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C240">
         <v>3</v>
@@ -5663,16 +5736,19 @@
       <c r="D240">
         <v>2</v>
       </c>
-      <c r="E240" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C241">
         <v>3</v>
@@ -5680,16 +5756,19 @@
       <c r="D241">
         <v>1</v>
       </c>
-      <c r="E241" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C242">
         <v>3</v>
@@ -5697,16 +5776,19 @@
       <c r="D242">
         <v>1</v>
       </c>
-      <c r="E242" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -5714,16 +5796,19 @@
       <c r="D243">
         <v>3</v>
       </c>
-      <c r="E243" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -5731,16 +5816,19 @@
       <c r="D244">
         <v>3</v>
       </c>
-      <c r="E244" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -5748,19 +5836,22 @@
       <c r="D245">
         <v>3</v>
       </c>
-      <c r="E245" t="s">
-        <v>203</v>
-      </c>
-      <c r="F245" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>2014</v>
+      </c>
+      <c r="G245" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -5768,16 +5859,19 @@
       <c r="D246">
         <v>3</v>
       </c>
-      <c r="E246" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -5785,16 +5879,19 @@
       <c r="D247">
         <v>3</v>
       </c>
-      <c r="E247" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -5802,16 +5899,19 @@
       <c r="D248">
         <v>3</v>
       </c>
-      <c r="E248" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -5819,16 +5919,19 @@
       <c r="D249">
         <v>3</v>
       </c>
-      <c r="E249" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -5836,16 +5939,19 @@
       <c r="D250">
         <v>3</v>
       </c>
-      <c r="E250" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -5853,16 +5959,19 @@
       <c r="D251">
         <v>3</v>
       </c>
-      <c r="E251" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -5870,16 +5979,19 @@
       <c r="D252">
         <v>3</v>
       </c>
-      <c r="E252" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -5887,16 +5999,19 @@
       <c r="D253">
         <v>3</v>
       </c>
-      <c r="E253" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -5904,16 +6019,19 @@
       <c r="D254">
         <v>3</v>
       </c>
-      <c r="E254" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -5921,16 +6039,19 @@
       <c r="D255">
         <v>2</v>
       </c>
-      <c r="E255" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -5938,16 +6059,19 @@
       <c r="D256">
         <v>2</v>
       </c>
-      <c r="E256" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -5955,16 +6079,19 @@
       <c r="D257">
         <v>2</v>
       </c>
-      <c r="E257" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -5972,16 +6099,19 @@
       <c r="D258">
         <v>2</v>
       </c>
-      <c r="E258" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -5989,16 +6119,19 @@
       <c r="D259">
         <v>2</v>
       </c>
-      <c r="E259" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -6006,16 +6139,19 @@
       <c r="D260">
         <v>1</v>
       </c>
-      <c r="E260" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -6023,16 +6159,19 @@
       <c r="D261">
         <v>1</v>
       </c>
-      <c r="E261" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C262">
         <v>3</v>
@@ -6040,16 +6179,19 @@
       <c r="D262">
         <v>3</v>
       </c>
-      <c r="E262" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C263">
         <v>3</v>
@@ -6057,16 +6199,19 @@
       <c r="D263">
         <v>3</v>
       </c>
-      <c r="E263" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E263">
+        <v>2</v>
+      </c>
+      <c r="F263">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C264">
         <v>3</v>
@@ -6074,16 +6219,19 @@
       <c r="D264">
         <v>3</v>
       </c>
-      <c r="E264" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <v>2</v>
+      </c>
+      <c r="F264">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C265">
         <v>3</v>
@@ -6091,16 +6239,19 @@
       <c r="D265">
         <v>3</v>
       </c>
-      <c r="E265" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E265">
+        <v>2</v>
+      </c>
+      <c r="F265">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C266">
         <v>3</v>
@@ -6108,16 +6259,19 @@
       <c r="D266">
         <v>2</v>
       </c>
-      <c r="E266" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E266">
+        <v>2</v>
+      </c>
+      <c r="F266">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C267">
         <v>3</v>
@@ -6125,16 +6279,19 @@
       <c r="D267">
         <v>1</v>
       </c>
-      <c r="E267" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -6142,16 +6299,19 @@
       <c r="D268">
         <v>2</v>
       </c>
-      <c r="E268" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E268">
+        <v>2</v>
+      </c>
+      <c r="F268">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -6159,16 +6319,19 @@
       <c r="D269">
         <v>3</v>
       </c>
-      <c r="E269" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E269">
+        <v>2</v>
+      </c>
+      <c r="F269">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C270">
         <v>2</v>
@@ -6176,16 +6339,19 @@
       <c r="D270">
         <v>3</v>
       </c>
-      <c r="E270" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E270">
+        <v>2</v>
+      </c>
+      <c r="F270">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C271">
         <v>3</v>
@@ -6193,16 +6359,19 @@
       <c r="D271">
         <v>3</v>
       </c>
-      <c r="E271" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E271">
+        <v>2</v>
+      </c>
+      <c r="F271">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -6210,16 +6379,19 @@
       <c r="D272">
         <v>2</v>
       </c>
-      <c r="E272" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E272">
+        <v>2</v>
+      </c>
+      <c r="F272">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -6227,16 +6399,19 @@
       <c r="D273">
         <v>2</v>
       </c>
-      <c r="E273" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E273">
+        <v>2</v>
+      </c>
+      <c r="F273">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -6244,16 +6419,19 @@
       <c r="D274">
         <v>2</v>
       </c>
-      <c r="E274" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E274">
+        <v>2</v>
+      </c>
+      <c r="F274">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C275">
         <v>3</v>
@@ -6261,16 +6439,19 @@
       <c r="D275">
         <v>2</v>
       </c>
-      <c r="E275" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E275">
+        <v>2</v>
+      </c>
+      <c r="F275">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -6278,19 +6459,22 @@
       <c r="D276">
         <v>2</v>
       </c>
-      <c r="E276" t="s">
-        <v>318</v>
-      </c>
-      <c r="F276" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E276">
+        <v>2</v>
+      </c>
+      <c r="F276">
+        <v>2014</v>
+      </c>
+      <c r="G276" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -6298,16 +6482,19 @@
       <c r="D277">
         <v>2</v>
       </c>
-      <c r="E277" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E277">
+        <v>2</v>
+      </c>
+      <c r="F277">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -6315,16 +6502,19 @@
       <c r="D278">
         <v>2</v>
       </c>
-      <c r="E278" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E278">
+        <v>2</v>
+      </c>
+      <c r="F278">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -6332,16 +6522,19 @@
       <c r="D279">
         <v>2</v>
       </c>
-      <c r="E279" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -6349,16 +6542,19 @@
       <c r="D280">
         <v>2</v>
       </c>
-      <c r="E280" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E280">
+        <v>2</v>
+      </c>
+      <c r="F280">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -6366,16 +6562,19 @@
       <c r="D281">
         <v>2</v>
       </c>
-      <c r="E281" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E281">
+        <v>2</v>
+      </c>
+      <c r="F281">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C282">
         <v>3</v>
@@ -6383,16 +6582,19 @@
       <c r="D282">
         <v>3</v>
       </c>
-      <c r="E282" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E282">
+        <v>2</v>
+      </c>
+      <c r="F282">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C283">
         <v>3</v>
@@ -6400,16 +6602,19 @@
       <c r="D283">
         <v>3</v>
       </c>
-      <c r="E283" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E283">
+        <v>3</v>
+      </c>
+      <c r="F283">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C284">
         <v>3</v>
@@ -6417,16 +6622,19 @@
       <c r="D284">
         <v>3</v>
       </c>
-      <c r="E284" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E284">
+        <v>3</v>
+      </c>
+      <c r="F284">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C285">
         <v>3</v>
@@ -6434,16 +6642,19 @@
       <c r="D285">
         <v>2</v>
       </c>
-      <c r="E285" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E285">
+        <v>3</v>
+      </c>
+      <c r="F285">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C286">
         <v>3</v>
@@ -6451,16 +6662,19 @@
       <c r="D286">
         <v>2</v>
       </c>
-      <c r="E286" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E286">
+        <v>3</v>
+      </c>
+      <c r="F286">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C287">
         <v>3</v>
@@ -6468,16 +6682,19 @@
       <c r="D287">
         <v>2</v>
       </c>
-      <c r="E287" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E287">
+        <v>3</v>
+      </c>
+      <c r="F287">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C288">
         <v>3</v>
@@ -6485,16 +6702,19 @@
       <c r="D288">
         <v>1</v>
       </c>
-      <c r="E288" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E288">
+        <v>3</v>
+      </c>
+      <c r="F288">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -6502,16 +6722,19 @@
       <c r="D289">
         <v>3</v>
       </c>
-      <c r="E289" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E289">
+        <v>3</v>
+      </c>
+      <c r="F289">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -6519,16 +6742,19 @@
       <c r="D290">
         <v>3</v>
       </c>
-      <c r="E290" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E290">
+        <v>3</v>
+      </c>
+      <c r="F290">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -6536,16 +6762,19 @@
       <c r="D291">
         <v>3</v>
       </c>
-      <c r="E291" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E291">
+        <v>3</v>
+      </c>
+      <c r="F291">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -6553,16 +6782,19 @@
       <c r="D292">
         <v>3</v>
       </c>
-      <c r="E292" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E292">
+        <v>3</v>
+      </c>
+      <c r="F292">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -6570,16 +6802,19 @@
       <c r="D293">
         <v>3</v>
       </c>
-      <c r="E293" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E293">
+        <v>3</v>
+      </c>
+      <c r="F293">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C294">
         <v>3</v>
@@ -6587,16 +6822,19 @@
       <c r="D294">
         <v>3</v>
       </c>
-      <c r="E294" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E294">
+        <v>3</v>
+      </c>
+      <c r="F294">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -6604,16 +6842,19 @@
       <c r="D295">
         <v>2</v>
       </c>
-      <c r="E295" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E295">
+        <v>3</v>
+      </c>
+      <c r="F295">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C296">
         <v>3</v>
@@ -6621,16 +6862,19 @@
       <c r="D296">
         <v>2</v>
       </c>
-      <c r="E296" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E296">
+        <v>3</v>
+      </c>
+      <c r="F296">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -6638,16 +6882,19 @@
       <c r="D297">
         <v>2</v>
       </c>
-      <c r="E297" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E297">
+        <v>3</v>
+      </c>
+      <c r="F297">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -6655,16 +6902,19 @@
       <c r="D298">
         <v>2</v>
       </c>
-      <c r="E298" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E298">
+        <v>3</v>
+      </c>
+      <c r="F298">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C299">
         <v>3</v>
@@ -6672,16 +6922,19 @@
       <c r="D299">
         <v>2</v>
       </c>
-      <c r="E299" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E299">
+        <v>3</v>
+      </c>
+      <c r="F299">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -6689,16 +6942,19 @@
       <c r="D300">
         <v>2</v>
       </c>
-      <c r="E300" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E300">
+        <v>3</v>
+      </c>
+      <c r="F300">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -6706,16 +6962,19 @@
       <c r="D301">
         <v>2</v>
       </c>
-      <c r="E301" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E301">
+        <v>3</v>
+      </c>
+      <c r="F301">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -6723,16 +6982,19 @@
       <c r="D302">
         <v>2</v>
       </c>
-      <c r="E302" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E302">
+        <v>3</v>
+      </c>
+      <c r="F302">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -6740,16 +7002,19 @@
       <c r="D303">
         <v>1</v>
       </c>
-      <c r="E303" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E303">
+        <v>3</v>
+      </c>
+      <c r="F303">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -6757,16 +7022,19 @@
       <c r="D304">
         <v>1</v>
       </c>
-      <c r="E304" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E304">
+        <v>3</v>
+      </c>
+      <c r="F304">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -6774,16 +7042,19 @@
       <c r="D305">
         <v>1</v>
       </c>
-      <c r="E305" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E305">
+        <v>3</v>
+      </c>
+      <c r="F305">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C306">
         <v>3</v>
@@ -6791,16 +7062,19 @@
       <c r="D306">
         <v>1</v>
       </c>
-      <c r="E306" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -6808,16 +7082,19 @@
       <c r="D307">
         <v>3</v>
       </c>
-      <c r="E307" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -6825,16 +7102,19 @@
       <c r="D308">
         <v>3</v>
       </c>
-      <c r="E308" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -6842,16 +7122,19 @@
       <c r="D309">
         <v>3</v>
       </c>
-      <c r="E309" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -6859,16 +7142,19 @@
       <c r="D310">
         <v>3</v>
       </c>
-      <c r="E310" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -6876,16 +7162,19 @@
       <c r="D311">
         <v>3</v>
       </c>
-      <c r="E311" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -6893,16 +7182,19 @@
       <c r="D312">
         <v>3</v>
       </c>
-      <c r="E312" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C313">
         <v>1</v>
@@ -6910,16 +7202,19 @@
       <c r="D313">
         <v>3</v>
       </c>
-      <c r="E313" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -6927,16 +7222,19 @@
       <c r="D314">
         <v>3</v>
       </c>
-      <c r="E314" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -6944,16 +7242,19 @@
       <c r="D315">
         <v>3</v>
       </c>
-      <c r="E315" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -6961,16 +7262,19 @@
       <c r="D316">
         <v>3</v>
       </c>
-      <c r="E316" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -6978,16 +7282,19 @@
       <c r="D317">
         <v>3</v>
       </c>
-      <c r="E317" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -6995,16 +7302,19 @@
       <c r="D318">
         <v>2</v>
       </c>
-      <c r="E318" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -7012,16 +7322,19 @@
       <c r="D319">
         <v>2</v>
       </c>
-      <c r="E319" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -7029,16 +7342,19 @@
       <c r="D320">
         <v>1</v>
       </c>
-      <c r="E320" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C321">
         <v>3</v>
@@ -7046,16 +7362,19 @@
       <c r="D321">
         <v>1</v>
       </c>
-      <c r="E321" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -7063,16 +7382,19 @@
       <c r="D322">
         <v>1</v>
       </c>
-      <c r="E322" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -7080,16 +7402,19 @@
       <c r="D323">
         <v>1</v>
       </c>
-      <c r="E323" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -7097,16 +7422,19 @@
       <c r="D324">
         <v>1</v>
       </c>
-      <c r="E324" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C325">
         <v>2</v>
@@ -7114,16 +7442,19 @@
       <c r="D325">
         <v>1</v>
       </c>
-      <c r="E325" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C326">
         <v>3</v>
@@ -7131,16 +7462,19 @@
       <c r="D326">
         <v>3</v>
       </c>
-      <c r="E326" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C327">
         <v>3</v>
@@ -7148,16 +7482,19 @@
       <c r="D327">
         <v>3</v>
       </c>
-      <c r="E327" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C328">
         <v>3</v>
@@ -7165,16 +7502,19 @@
       <c r="D328">
         <v>2</v>
       </c>
-      <c r="E328" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C329">
         <v>3</v>
@@ -7182,16 +7522,19 @@
       <c r="D329">
         <v>2</v>
       </c>
-      <c r="E329" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -7199,16 +7542,19 @@
       <c r="D330">
         <v>3</v>
       </c>
-      <c r="E330" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -7216,16 +7562,19 @@
       <c r="D331">
         <v>3</v>
       </c>
-      <c r="E331" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E331">
+        <v>1</v>
+      </c>
+      <c r="F331">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -7233,16 +7582,19 @@
       <c r="D332">
         <v>3</v>
       </c>
-      <c r="E332" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -7250,16 +7602,19 @@
       <c r="D333">
         <v>3</v>
       </c>
-      <c r="E333" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C334">
         <v>3</v>
@@ -7267,16 +7622,19 @@
       <c r="D334">
         <v>3</v>
       </c>
-      <c r="E334" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C335">
         <v>3</v>
@@ -7284,16 +7642,19 @@
       <c r="D335">
         <v>3</v>
       </c>
-      <c r="E335" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -7301,16 +7662,19 @@
       <c r="D336">
         <v>3</v>
       </c>
-      <c r="E336" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C337">
         <v>3</v>
@@ -7318,16 +7682,19 @@
       <c r="D337">
         <v>3</v>
       </c>
-      <c r="E337" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -7335,16 +7702,19 @@
       <c r="D338">
         <v>3</v>
       </c>
-      <c r="E338" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -7352,16 +7722,19 @@
       <c r="D339">
         <v>3</v>
       </c>
-      <c r="E339" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -7369,16 +7742,19 @@
       <c r="D340">
         <v>3</v>
       </c>
-      <c r="E340" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C341">
         <v>1</v>
@@ -7386,16 +7762,19 @@
       <c r="D341">
         <v>2</v>
       </c>
-      <c r="E341" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -7403,16 +7782,19 @@
       <c r="D342">
         <v>2</v>
       </c>
-      <c r="E342" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -7420,16 +7802,19 @@
       <c r="D343">
         <v>2</v>
       </c>
-      <c r="E343" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -7437,16 +7822,19 @@
       <c r="D344">
         <v>2</v>
       </c>
-      <c r="E344" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -7454,16 +7842,19 @@
       <c r="D345">
         <v>2</v>
       </c>
-      <c r="E345" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -7471,16 +7862,19 @@
       <c r="D346">
         <v>2</v>
       </c>
-      <c r="E346" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -7488,16 +7882,19 @@
       <c r="D347">
         <v>2</v>
       </c>
-      <c r="E347" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="F347">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -7505,16 +7902,19 @@
       <c r="D348">
         <v>2</v>
       </c>
-      <c r="E348" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E348">
+        <v>1</v>
+      </c>
+      <c r="F348">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -7522,16 +7922,19 @@
       <c r="D349">
         <v>2</v>
       </c>
-      <c r="E349" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E349">
+        <v>1</v>
+      </c>
+      <c r="F349">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -7539,16 +7942,19 @@
       <c r="D350">
         <v>2</v>
       </c>
-      <c r="E350" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C351">
         <v>1</v>
@@ -7556,16 +7962,19 @@
       <c r="D351">
         <v>2</v>
       </c>
-      <c r="E351" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E351">
+        <v>1</v>
+      </c>
+      <c r="F351">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -7573,8 +7982,11 @@
       <c r="D352">
         <v>1</v>
       </c>
-      <c r="E352" t="s">
-        <v>381</v>
+      <c r="E352">
+        <v>1</v>
+      </c>
+      <c r="F352">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>

--- a/resources/database/data/downloads/db_download - staging data.xlsx
+++ b/resources/database/data/downloads/db_download - staging data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="24000" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="24000" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="437">
   <si>
     <t>id</t>
   </si>
@@ -1140,6 +1140,201 @@
   </si>
   <si>
     <t>season</t>
+  </si>
+  <si>
+    <t>God Eater</t>
+  </si>
+  <si>
+    <t>Noragami Aragoto</t>
+  </si>
+  <si>
+    <t>Rakudai Kishi no Cavalry</t>
+  </si>
+  <si>
+    <t>Gakuen Toshi Asterisk</t>
+  </si>
+  <si>
+    <t>K - Return of Kings</t>
+  </si>
+  <si>
+    <t>Gochuumon wo Usagi Desu ka??</t>
+  </si>
+  <si>
+    <t>Owari no Seraph - Nagoya Kessen-hen</t>
+  </si>
+  <si>
+    <t>Sakurako-san no Ashimoto ni wa Shitai Umatteiru</t>
+  </si>
+  <si>
+    <t>Taimadou Gakuen 35 Shiken Shoutai</t>
+  </si>
+  <si>
+    <t>Ore ga Ojousama Gakkou ni "Shomin Sample" Toshite Gets Sareta Ken</t>
+  </si>
+  <si>
+    <t>Valkyrie Drive: Mermaid</t>
+  </si>
+  <si>
+    <t>Owarimonogatari</t>
+  </si>
+  <si>
+    <t>Shimai Maou no Testament Burst</t>
+  </si>
+  <si>
+    <t>Komori-san wa Kotowarenai!</t>
+  </si>
+  <si>
+    <t>Shingeki! Kyojin Chuugakkou</t>
+  </si>
+  <si>
+    <t>Dance with Devils</t>
+  </si>
+  <si>
+    <t>Onsen Yosei Hakone-chan</t>
+  </si>
+  <si>
+    <t>Anitore! EX</t>
+  </si>
+  <si>
+    <t>Tantei Team KZ Jiken Note</t>
+  </si>
+  <si>
+    <t>Miss Monochrome: The Animation 3</t>
+  </si>
+  <si>
+    <t>JK Meshi!</t>
+  </si>
+  <si>
+    <t>Cardfight! Vanguard G - GIRS Crisis-hen</t>
+  </si>
+  <si>
+    <t>Ansatu Kyoushitsu 2</t>
+  </si>
+  <si>
+    <t>Ao no Kanata no Four Rhytm</t>
+  </si>
+  <si>
+    <t>HaruChika - Haru to Chika wa Seishun Suru</t>
+  </si>
+  <si>
+    <t>Prince of Stride - Alternative</t>
+  </si>
+  <si>
+    <t>Schwarzesmarken</t>
+  </si>
+  <si>
+    <t>Shoujo-tachi wa Kyouya wo Mezasu</t>
+  </si>
+  <si>
+    <t>Akagami no Shirayuki-hime 2</t>
+  </si>
+  <si>
+    <t>Dagashi Kashi</t>
+  </si>
+  <si>
+    <t>Koukaku no Pandora</t>
+  </si>
+  <si>
+    <t>Nurse Witch Komugi-chan R</t>
+  </si>
+  <si>
+    <t>Saijaka Muhai no Bahamut</t>
+  </si>
+  <si>
+    <t>Nijiiro Days</t>
+  </si>
+  <si>
+    <t>Oshiete! Gyaruko-chan</t>
+  </si>
+  <si>
+    <t>Boku Dake ga Inai Machi</t>
+  </si>
+  <si>
+    <t>Durarara!!x2 Ketsu</t>
+  </si>
+  <si>
+    <t>Hai to Gensou no Grimgar</t>
+  </si>
+  <si>
+    <t>Norn9 - Norn + Nonet</t>
+  </si>
+  <si>
+    <t>Shouwa Genroku Rakugo Shinjuu</t>
+  </si>
+  <si>
+    <t>Kanojo to Kanojo no Neko - Everything Flows</t>
+  </si>
+  <si>
+    <t>Ojisan to Marshmallow</t>
+  </si>
+  <si>
+    <t>Ooya-san wa Shishunki!</t>
+  </si>
+  <si>
+    <t>Teekyuu 7</t>
+  </si>
+  <si>
+    <t>Flying Witch</t>
+  </si>
+  <si>
+    <t>Gakusen Toshi Asterisk 2</t>
+  </si>
+  <si>
+    <t>High School Fleet</t>
+  </si>
+  <si>
+    <t>Magi - Sinbad no Bouken</t>
+  </si>
+  <si>
+    <t>Shounen Maid</t>
+  </si>
+  <si>
+    <t>Anne Happy</t>
+  </si>
+  <si>
+    <t>Mayoiga</t>
+  </si>
+  <si>
+    <t>Netoge no Yome wa Nonnanoko ja Nai to Omotta</t>
+  </si>
+  <si>
+    <t>Bakuon!!</t>
+  </si>
+  <si>
+    <t>Hundred</t>
+  </si>
+  <si>
+    <t>Kuma Miko</t>
+  </si>
+  <si>
+    <t>Kyoukai no Rinne 2</t>
+  </si>
+  <si>
+    <t>Sakamoto desu ga</t>
+  </si>
+  <si>
+    <t>12-sai - Chiccha na Mune no Tokimeki</t>
+  </si>
+  <si>
+    <t>Beyblade Burst</t>
+  </si>
+  <si>
+    <t>Big Order</t>
+  </si>
+  <si>
+    <t>Bungou Stray Dogs</t>
+  </si>
+  <si>
+    <t>Cardfight!! Vanguard G - Stride Gate-hen</t>
+  </si>
+  <si>
+    <t>Gyakuten Saiban - Sono "Shinjitsu", Igi Ari!</t>
+  </si>
+  <si>
+    <t>Kiznaiver</t>
+  </si>
+  <si>
+    <t>Koutetsujou no Kabaneri</t>
   </si>
 </sst>
 </file>
@@ -1491,10 +1686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J352"/>
+  <dimension ref="A1:J417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B418" sqref="B418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,17 +1725,6 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1554,11 +1739,8 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
+      <c r="I3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1575,10 +1757,10 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1593,6 +1775,12 @@
       </c>
       <c r="D5">
         <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1609,10 +1797,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1628,12 +1816,6 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1649,10 +1831,10 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1668,6 +1850,12 @@
       <c r="D9">
         <v>2</v>
       </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1682,6 +1870,12 @@
       <c r="D10">
         <v>2</v>
       </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -7987,6 +8181,1111 @@
       </c>
       <c r="F352">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
+        <v>372</v>
+      </c>
+      <c r="C353">
+        <v>3</v>
+      </c>
+      <c r="D353">
+        <v>2</v>
+      </c>
+      <c r="E353">
+        <v>2</v>
+      </c>
+      <c r="F353">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
+        <v>373</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>3</v>
+      </c>
+      <c r="E354">
+        <v>3</v>
+      </c>
+      <c r="F354">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
+        <v>374</v>
+      </c>
+      <c r="C355">
+        <v>2</v>
+      </c>
+      <c r="D355">
+        <v>3</v>
+      </c>
+      <c r="E355">
+        <v>3</v>
+      </c>
+      <c r="F355">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
+        <v>375</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>3</v>
+      </c>
+      <c r="E356">
+        <v>3</v>
+      </c>
+      <c r="F356">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>376</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>3</v>
+      </c>
+      <c r="E357">
+        <v>3</v>
+      </c>
+      <c r="F357">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
+        <v>377</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>3</v>
+      </c>
+      <c r="E358">
+        <v>3</v>
+      </c>
+      <c r="F358">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
+        <v>378</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>2</v>
+      </c>
+      <c r="E359">
+        <v>3</v>
+      </c>
+      <c r="F359">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
+        <v>379</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+      <c r="E360">
+        <v>3</v>
+      </c>
+      <c r="F360">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
+        <v>380</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>2</v>
+      </c>
+      <c r="E361">
+        <v>3</v>
+      </c>
+      <c r="F361">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
+        <v>381</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
+      </c>
+      <c r="E362">
+        <v>3</v>
+      </c>
+      <c r="F362">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
+        <v>382</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+      <c r="E363">
+        <v>3</v>
+      </c>
+      <c r="F363">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
+        <v>383</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>2</v>
+      </c>
+      <c r="E364">
+        <v>3</v>
+      </c>
+      <c r="F364">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
+        <v>384</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>2</v>
+      </c>
+      <c r="E365">
+        <v>3</v>
+      </c>
+      <c r="F365">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
+        <v>385</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>2</v>
+      </c>
+      <c r="E366">
+        <v>3</v>
+      </c>
+      <c r="F366">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
+        <v>386</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367">
+        <v>3</v>
+      </c>
+      <c r="F367">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
+        <v>387</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368">
+        <v>3</v>
+      </c>
+      <c r="F368">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
+        <v>388</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>3</v>
+      </c>
+      <c r="F369">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
+        <v>389</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>3</v>
+      </c>
+      <c r="F370">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
+        <v>390</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+      <c r="E371">
+        <v>3</v>
+      </c>
+      <c r="F371">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
+        <v>391</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>3</v>
+      </c>
+      <c r="F372">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
+        <v>392</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>3</v>
+      </c>
+      <c r="F373">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
+        <v>393</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374">
+        <v>3</v>
+      </c>
+      <c r="F374">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
+        <v>394</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>3</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
+        <v>395</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>2</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
+        <v>396</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>2</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
+        <v>397</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>2</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+      <c r="F378">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
+        <v>398</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>2</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+      <c r="F379">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
+        <v>399</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>2</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
+        <v>400</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+      <c r="D381">
+        <v>2</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
+        <v>401</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>2</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+      <c r="F382">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
+        <v>402</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>2</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+      <c r="F383">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>403</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>2</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>404</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>2</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>405</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>2</v>
+      </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
+      <c r="F386">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>406</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>2</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>407</v>
+      </c>
+      <c r="C388">
+        <v>3</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+      <c r="F388">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>408</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>409</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>410</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>411</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>412</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>413</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+      <c r="F394">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>414</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>415</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="F396">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>416</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>3</v>
+      </c>
+      <c r="E397">
+        <v>1</v>
+      </c>
+      <c r="F397">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>417</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>3</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+      <c r="F398">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>418</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>3</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
+      <c r="F399">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
+        <v>419</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>3</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+      <c r="F400">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
+        <v>420</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401">
+        <v>3</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+      <c r="F401">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
+        <v>421</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>2</v>
+      </c>
+      <c r="E402">
+        <v>1</v>
+      </c>
+      <c r="F402">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
+        <v>422</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403">
+        <v>1</v>
+      </c>
+      <c r="F403">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
+        <v>423</v>
+      </c>
+      <c r="C404">
+        <v>1</v>
+      </c>
+      <c r="D404">
+        <v>2</v>
+      </c>
+      <c r="E404">
+        <v>1</v>
+      </c>
+      <c r="F404">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
+        <v>424</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>2</v>
+      </c>
+      <c r="E405">
+        <v>1</v>
+      </c>
+      <c r="F405">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
+        <v>425</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>2</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B407" t="s">
+        <v>426</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>2</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
+        <v>427</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408">
+        <v>2</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
+        <v>428</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>2</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+      <c r="F409">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
+        <v>429</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
+        <v>430</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
+        <v>431</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
+        <v>432</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413">
+        <v>1</v>
+      </c>
+      <c r="F413">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
+        <v>433</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414">
+        <v>1</v>
+      </c>
+      <c r="F414">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
+        <v>434</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415">
+        <v>1</v>
+      </c>
+      <c r="F415">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
+        <v>435</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+      <c r="E416">
+        <v>1</v>
+      </c>
+      <c r="F416">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>436</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+      <c r="E417">
+        <v>1</v>
+      </c>
+      <c r="F417">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>

--- a/resources/database/data/downloads/db_download - staging data.xlsx
+++ b/resources/database/data/downloads/db_download - staging data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="462">
   <si>
     <t>id</t>
   </si>
@@ -1335,6 +1335,81 @@
   </si>
   <si>
     <t>Koutetsujou no Kabaneri</t>
+  </si>
+  <si>
+    <t>Danganronpa 3 - The End of Kibougamine Gakuen - Mirai-hen</t>
+  </si>
+  <si>
+    <t>Danganronpa 3 - The End of Kibougamine Gakuen - Zetsubou-hen</t>
+  </si>
+  <si>
+    <t>Kono Bijutsu-bu ni wa Mondai ga Aru!</t>
+  </si>
+  <si>
+    <t>Nanatsu no Taizai - Seisen no Shirushi</t>
+  </si>
+  <si>
+    <t>ReLIFE</t>
+  </si>
+  <si>
+    <t>Time Travel Shoujo - Mari Waka to 8-nin no Kagakusha-tachi</t>
+  </si>
+  <si>
+    <t>Ange Vierge</t>
+  </si>
+  <si>
+    <t>Hatsukoi Monster</t>
+  </si>
+  <si>
+    <t>New Game!</t>
+  </si>
+  <si>
+    <t>Rewrite</t>
+  </si>
+  <si>
+    <t>Fukigen na Mononokean</t>
+  </si>
+  <si>
+    <t>Masou Gakuen HxH</t>
+  </si>
+  <si>
+    <t>Momokuri</t>
+  </si>
+  <si>
+    <t>Nejimaki Seirei Senki - Tenkyou no Alderamin</t>
+  </si>
+  <si>
+    <t>Taboo Tattoo</t>
+  </si>
+  <si>
+    <t>91Days</t>
+  </si>
+  <si>
+    <t>Amaama to Inazuma</t>
+  </si>
+  <si>
+    <t>Amanchu!</t>
+  </si>
+  <si>
+    <t>Fate/kaleid liner Prisma Illya 3rei!!</t>
+  </si>
+  <si>
+    <t>Hitori no Shita - The Outcast</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Regalia - The Three Sacred Stars</t>
+  </si>
+  <si>
+    <t>Scared Rider XechS</t>
+  </si>
+  <si>
+    <t>Servamp</t>
+  </si>
+  <si>
+    <t>WAITING FOR FFF BDs (Partially Downloaded)</t>
   </si>
 </sst>
 </file>
@@ -1686,11 +1761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J417"/>
+  <dimension ref="A1:J441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B418" sqref="B418"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B416" sqref="B416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8183,7 +8258,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>351</v>
+      </c>
       <c r="B353" t="s">
         <v>372</v>
       </c>
@@ -8200,7 +8278,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>352</v>
+      </c>
       <c r="B354" t="s">
         <v>373</v>
       </c>
@@ -8217,7 +8298,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>353</v>
+      </c>
       <c r="B355" t="s">
         <v>374</v>
       </c>
@@ -8234,7 +8318,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>354</v>
+      </c>
       <c r="B356" t="s">
         <v>375</v>
       </c>
@@ -8251,7 +8338,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>355</v>
+      </c>
       <c r="B357" t="s">
         <v>376</v>
       </c>
@@ -8268,7 +8358,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>356</v>
+      </c>
       <c r="B358" t="s">
         <v>377</v>
       </c>
@@ -8285,7 +8378,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>357</v>
+      </c>
       <c r="B359" t="s">
         <v>378</v>
       </c>
@@ -8302,7 +8398,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>358</v>
+      </c>
       <c r="B360" t="s">
         <v>379</v>
       </c>
@@ -8319,7 +8418,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>359</v>
+      </c>
       <c r="B361" t="s">
         <v>380</v>
       </c>
@@ -8336,7 +8438,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>360</v>
+      </c>
       <c r="B362" t="s">
         <v>381</v>
       </c>
@@ -8353,7 +8458,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>361</v>
+      </c>
       <c r="B363" t="s">
         <v>382</v>
       </c>
@@ -8370,7 +8478,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>362</v>
+      </c>
       <c r="B364" t="s">
         <v>383</v>
       </c>
@@ -8387,7 +8498,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>363</v>
+      </c>
       <c r="B365" t="s">
         <v>384</v>
       </c>
@@ -8404,7 +8518,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>364</v>
+      </c>
       <c r="B366" t="s">
         <v>385</v>
       </c>
@@ -8421,7 +8538,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>365</v>
+      </c>
       <c r="B367" t="s">
         <v>386</v>
       </c>
@@ -8438,7 +8558,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>366</v>
+      </c>
       <c r="B368" t="s">
         <v>387</v>
       </c>
@@ -8455,7 +8578,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="369" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>367</v>
+      </c>
       <c r="B369" t="s">
         <v>388</v>
       </c>
@@ -8472,7 +8598,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="370" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>368</v>
+      </c>
       <c r="B370" t="s">
         <v>389</v>
       </c>
@@ -8489,7 +8618,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="371" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>369</v>
+      </c>
       <c r="B371" t="s">
         <v>390</v>
       </c>
@@ -8506,7 +8638,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="372" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>370</v>
+      </c>
       <c r="B372" t="s">
         <v>391</v>
       </c>
@@ -8523,7 +8658,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="373" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>371</v>
+      </c>
       <c r="B373" t="s">
         <v>392</v>
       </c>
@@ -8540,7 +8678,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="374" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>372</v>
+      </c>
       <c r="B374" t="s">
         <v>393</v>
       </c>
@@ -8557,7 +8698,10 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="375" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>373</v>
+      </c>
       <c r="B375" t="s">
         <v>394</v>
       </c>
@@ -8574,7 +8718,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="376" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>374</v>
+      </c>
       <c r="B376" t="s">
         <v>395</v>
       </c>
@@ -8591,7 +8738,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="377" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>375</v>
+      </c>
       <c r="B377" t="s">
         <v>396</v>
       </c>
@@ -8608,7 +8758,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="378" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>376</v>
+      </c>
       <c r="B378" t="s">
         <v>397</v>
       </c>
@@ -8625,7 +8778,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="379" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>377</v>
+      </c>
       <c r="B379" t="s">
         <v>398</v>
       </c>
@@ -8642,7 +8798,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="380" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>378</v>
+      </c>
       <c r="B380" t="s">
         <v>399</v>
       </c>
@@ -8659,7 +8818,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="381" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>379</v>
+      </c>
       <c r="B381" t="s">
         <v>400</v>
       </c>
@@ -8676,7 +8838,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="382" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>380</v>
+      </c>
       <c r="B382" t="s">
         <v>401</v>
       </c>
@@ -8693,7 +8858,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="383" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>381</v>
+      </c>
       <c r="B383" t="s">
         <v>402</v>
       </c>
@@ -8710,7 +8878,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="384" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>382</v>
+      </c>
       <c r="B384" t="s">
         <v>403</v>
       </c>
@@ -8727,7 +8898,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>383</v>
+      </c>
       <c r="B385" t="s">
         <v>404</v>
       </c>
@@ -8744,7 +8918,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>384</v>
+      </c>
       <c r="B386" t="s">
         <v>405</v>
       </c>
@@ -8761,7 +8938,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>385</v>
+      </c>
       <c r="B387" t="s">
         <v>406</v>
       </c>
@@ -8778,7 +8958,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>386</v>
+      </c>
       <c r="B388" t="s">
         <v>407</v>
       </c>
@@ -8795,7 +8978,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>387</v>
+      </c>
       <c r="B389" t="s">
         <v>408</v>
       </c>
@@ -8812,7 +8998,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>388</v>
+      </c>
       <c r="B390" t="s">
         <v>409</v>
       </c>
@@ -8829,7 +9018,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>389</v>
+      </c>
       <c r="B391" t="s">
         <v>410</v>
       </c>
@@ -8846,7 +9038,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>390</v>
+      </c>
       <c r="B392" t="s">
         <v>411</v>
       </c>
@@ -8863,7 +9058,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>391</v>
+      </c>
       <c r="B393" t="s">
         <v>412</v>
       </c>
@@ -8880,7 +9078,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>392</v>
+      </c>
       <c r="B394" t="s">
         <v>413</v>
       </c>
@@ -8897,7 +9098,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>393</v>
+      </c>
       <c r="B395" t="s">
         <v>414</v>
       </c>
@@ -8914,7 +9118,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>394</v>
+      </c>
       <c r="B396" t="s">
         <v>415</v>
       </c>
@@ -8931,7 +9138,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>395</v>
+      </c>
       <c r="B397" t="s">
         <v>416</v>
       </c>
@@ -8948,7 +9158,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>396</v>
+      </c>
       <c r="B398" t="s">
         <v>417</v>
       </c>
@@ -8965,7 +9178,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>397</v>
+      </c>
       <c r="B399" t="s">
         <v>418</v>
       </c>
@@ -8982,7 +9198,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>398</v>
+      </c>
       <c r="B400" t="s">
         <v>419</v>
       </c>
@@ -8999,7 +9218,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>399</v>
+      </c>
       <c r="B401" t="s">
         <v>420</v>
       </c>
@@ -9016,7 +9238,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>400</v>
+      </c>
       <c r="B402" t="s">
         <v>421</v>
       </c>
@@ -9033,7 +9258,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>401</v>
+      </c>
       <c r="B403" t="s">
         <v>422</v>
       </c>
@@ -9050,7 +9278,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>402</v>
+      </c>
       <c r="B404" t="s">
         <v>423</v>
       </c>
@@ -9067,7 +9298,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>403</v>
+      </c>
       <c r="B405" t="s">
         <v>424</v>
       </c>
@@ -9084,7 +9318,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>404</v>
+      </c>
       <c r="B406" t="s">
         <v>425</v>
       </c>
@@ -9101,7 +9338,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>405</v>
+      </c>
       <c r="B407" t="s">
         <v>426</v>
       </c>
@@ -9118,7 +9358,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>406</v>
+      </c>
       <c r="B408" t="s">
         <v>427</v>
       </c>
@@ -9135,7 +9378,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>407</v>
+      </c>
       <c r="B409" t="s">
         <v>428</v>
       </c>
@@ -9152,7 +9398,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>408</v>
+      </c>
       <c r="B410" t="s">
         <v>429</v>
       </c>
@@ -9169,7 +9418,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>409</v>
+      </c>
       <c r="B411" t="s">
         <v>430</v>
       </c>
@@ -9186,7 +9438,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>410</v>
+      </c>
       <c r="B412" t="s">
         <v>431</v>
       </c>
@@ -9203,7 +9458,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>411</v>
+      </c>
       <c r="B413" t="s">
         <v>432</v>
       </c>
@@ -9220,7 +9478,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>412</v>
+      </c>
       <c r="B414" t="s">
         <v>433</v>
       </c>
@@ -9237,7 +9498,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>413</v>
+      </c>
       <c r="B415" t="s">
         <v>434</v>
       </c>
@@ -9254,7 +9518,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>414</v>
+      </c>
       <c r="B416" t="s">
         <v>435</v>
       </c>
@@ -9271,7 +9538,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>415</v>
+      </c>
       <c r="B417" t="s">
         <v>436</v>
       </c>
@@ -9285,6 +9555,489 @@
         <v>1</v>
       </c>
       <c r="F417">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>437</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418">
+        <v>3</v>
+      </c>
+      <c r="E418">
+        <v>2</v>
+      </c>
+      <c r="F418">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>438</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419">
+        <v>3</v>
+      </c>
+      <c r="E419">
+        <v>2</v>
+      </c>
+      <c r="F419">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>439</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>3</v>
+      </c>
+      <c r="E420">
+        <v>2</v>
+      </c>
+      <c r="F420">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>440</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421">
+        <v>3</v>
+      </c>
+      <c r="E421">
+        <v>2</v>
+      </c>
+      <c r="F421">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>441</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>3</v>
+      </c>
+      <c r="E422">
+        <v>2</v>
+      </c>
+      <c r="F422">
+        <v>2016</v>
+      </c>
+      <c r="G422" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>442</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423">
+        <v>3</v>
+      </c>
+      <c r="E423">
+        <v>2</v>
+      </c>
+      <c r="F423">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>443</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="D424">
+        <v>2</v>
+      </c>
+      <c r="E424">
+        <v>2</v>
+      </c>
+      <c r="F424">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>444</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
+      </c>
+      <c r="E425">
+        <v>2</v>
+      </c>
+      <c r="F425">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>445</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426">
+        <v>2</v>
+      </c>
+      <c r="E426">
+        <v>2</v>
+      </c>
+      <c r="F426">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>446</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>2</v>
+      </c>
+      <c r="E427">
+        <v>2</v>
+      </c>
+      <c r="F427">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>447</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428">
+        <v>2</v>
+      </c>
+      <c r="E428">
+        <v>2</v>
+      </c>
+      <c r="F428">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>448</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429">
+        <v>2</v>
+      </c>
+      <c r="E429">
+        <v>2</v>
+      </c>
+      <c r="F429">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>449</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
+      </c>
+      <c r="E430">
+        <v>2</v>
+      </c>
+      <c r="F430">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>450</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>2</v>
+      </c>
+      <c r="E431">
+        <v>2</v>
+      </c>
+      <c r="F431">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>451</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>2</v>
+      </c>
+      <c r="E432">
+        <v>2</v>
+      </c>
+      <c r="F432">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>452</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>2</v>
+      </c>
+      <c r="F433">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>453</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>2</v>
+      </c>
+      <c r="F434">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>454</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>2</v>
+      </c>
+      <c r="F435">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>455</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+      <c r="E436">
+        <v>2</v>
+      </c>
+      <c r="F436">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>456</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+      <c r="E437">
+        <v>2</v>
+      </c>
+      <c r="F437">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>457</v>
+      </c>
+      <c r="C438">
+        <v>3</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+      <c r="E438">
+        <v>2</v>
+      </c>
+      <c r="F438">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>458</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+      <c r="E439">
+        <v>2</v>
+      </c>
+      <c r="F439">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>459</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440">
+        <v>2</v>
+      </c>
+      <c r="F440">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>460</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441">
+        <v>2</v>
+      </c>
+      <c r="F441">
         <v>2016</v>
       </c>
     </row>

--- a/resources/database/data/downloads/db_download - staging data.xlsx
+++ b/resources/database/data/downloads/db_download - staging data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="24000" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="24000" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="578">
   <si>
     <t>id</t>
   </si>
@@ -1410,6 +1410,354 @@
   </si>
   <si>
     <t>WAITING FOR FFF BDs (Partially Downloaded)</t>
+  </si>
+  <si>
+    <t>3-gatsu no Lion</t>
+  </si>
+  <si>
+    <t>Brave Witches</t>
+  </si>
+  <si>
+    <t>Gi(a)rlish Number</t>
+  </si>
+  <si>
+    <t>Hibike! Euphonium 2</t>
+  </si>
+  <si>
+    <t>Keijo!!!!</t>
+  </si>
+  <si>
+    <t>Long Riders</t>
+  </si>
+  <si>
+    <t>Lostorage incited WIXOSS</t>
+  </si>
+  <si>
+    <t>Watashi ga Motete Dousunda</t>
+  </si>
+  <si>
+    <t>Www.Working!!</t>
+  </si>
+  <si>
+    <t>Bungou Stray Dogs 2</t>
+  </si>
+  <si>
+    <t>Idol Memories</t>
+  </si>
+  <si>
+    <t>Mahou Shoujo Ikusei Keikaku</t>
+  </si>
+  <si>
+    <t>12-sai - Chiccha na Mune no Tokimeki 2</t>
+  </si>
+  <si>
+    <t>Bubuki Buranki: Hoshi no Kyojin</t>
+  </si>
+  <si>
+    <t>Cardfight!! Vanguard G Next</t>
+  </si>
+  <si>
+    <t>Monster Hunter Stories - Ride On</t>
+  </si>
+  <si>
+    <t>Nanbaka</t>
+  </si>
+  <si>
+    <t>Natsume Yuujinchou Go</t>
+  </si>
+  <si>
+    <t>Occultic;Nine</t>
+  </si>
+  <si>
+    <t>Show By Rock!!#</t>
+  </si>
+  <si>
+    <t>Shuumatsu no Izetta</t>
+  </si>
+  <si>
+    <t>Soushin Shoujo Matoi</t>
+  </si>
+  <si>
+    <t>Stella no Mahou</t>
+  </si>
+  <si>
+    <t>Syankunetsu no Takkyuu Musume</t>
+  </si>
+  <si>
+    <t>Touken Ranbu - Hanamaru</t>
+  </si>
+  <si>
+    <t>Trickster - Edogawa Rampo "Shounen Tantei-dan" yori</t>
+  </si>
+  <si>
+    <t>ViVid Strike!</t>
+  </si>
+  <si>
+    <t>Chaos;Child</t>
+  </si>
+  <si>
+    <t>Demi-chan wa Kataritai</t>
+  </si>
+  <si>
+    <t>Fuuka</t>
+  </si>
+  <si>
+    <t>Kono Subarashii Sekai ni Shukufuku wo! 2</t>
+  </si>
+  <si>
+    <t>Kuzu no Honai</t>
+  </si>
+  <si>
+    <t>Rewrite 2nd Season - Moon-Hen / Terra-Hen</t>
+  </si>
+  <si>
+    <t>Seiren</t>
+  </si>
+  <si>
+    <t>Gabriel Dropout</t>
+  </si>
+  <si>
+    <t>Gintama.</t>
+  </si>
+  <si>
+    <t>Hand Shakers</t>
+  </si>
+  <si>
+    <t>Kobayashi-san Chi no Maidragon</t>
+  </si>
+  <si>
+    <t>Masamune-kun no Revenge</t>
+  </si>
+  <si>
+    <t>Urara Meirochou</t>
+  </si>
+  <si>
+    <t>KochinPa! Dainiki</t>
+  </si>
+  <si>
+    <t>Akiba's Trip - The Animation</t>
+  </si>
+  <si>
+    <t>BanG Dream!</t>
+  </si>
+  <si>
+    <t>Idol Jihen</t>
+  </si>
+  <si>
+    <t>Kemono Friends</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Minami Kamakura Koukou Joshi Jitenshi-Bu</t>
+  </si>
+  <si>
+    <t>Reikenzan - Eichi e no Shikaku</t>
+  </si>
+  <si>
+    <t>Schoolgirl Strikers Animation Channel</t>
+  </si>
+  <si>
+    <t>Boku no Hero Academia 2</t>
+  </si>
+  <si>
+    <t>Dungeon ni Deai wo Motomeru no wa Machigatteiru Darou ka Gaiden: Sword Oratoria</t>
+  </si>
+  <si>
+    <t>Eromanga Sensei</t>
+  </si>
+  <si>
+    <t>Saenai Heroine no Sodate-kata b (Season 2)</t>
+  </si>
+  <si>
+    <t>Clockwork Planet</t>
+  </si>
+  <si>
+    <t>Fukumenkei Noise</t>
+  </si>
+  <si>
+    <t>Hinako Note</t>
+  </si>
+  <si>
+    <t>Kyoukai no Rinne 3</t>
+  </si>
+  <si>
+    <t>Natsume Yuujinchou Roku</t>
+  </si>
+  <si>
+    <t>Rokudenashi Majutsu Koushi to Kinki Kyouten</t>
+  </si>
+  <si>
+    <t>Shuumatsu Nani Shitemasu ka? Isogashii desu ka? Sukutte Moratte Ii desu ka?</t>
+  </si>
+  <si>
+    <t>Tsugumomo</t>
+  </si>
+  <si>
+    <t>Alice to Zouroku</t>
+  </si>
+  <si>
+    <t>Busou Shoujo Machiavellianism</t>
+  </si>
+  <si>
+    <t>Frame Arms Girl</t>
+  </si>
+  <si>
+    <t>Oushitsu Kyoushi Heine</t>
+  </si>
+  <si>
+    <t>Quan Zhi Gao Shou</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Renai Boukun</t>
+  </si>
+  <si>
+    <t>Sagrada Reset</t>
+  </si>
+  <si>
+    <t>Sakura Quest</t>
+  </si>
+  <si>
+    <t>Seikaisuru Kado</t>
+  </si>
+  <si>
+    <t>Sin Nanatsu no Taizai</t>
+  </si>
+  <si>
+    <t>Tsuki ga Kirei</t>
+  </si>
+  <si>
+    <t>Twin Angel Break</t>
+  </si>
+  <si>
+    <t>Zero kara Hajimeru Mahou no Sho</t>
+  </si>
+  <si>
+    <t>Fate/Apocrypha</t>
+  </si>
+  <si>
+    <t>Gamers!</t>
+  </si>
+  <si>
+    <t>Isekai wa Smartphone to Tomo ni.</t>
+  </si>
+  <si>
+    <t>Koi to Uso</t>
+  </si>
+  <si>
+    <t>Konbini Kareshi</t>
+  </si>
+  <si>
+    <t>New Game!!</t>
+  </si>
+  <si>
+    <t>Owarimonogatari (Ge)</t>
+  </si>
+  <si>
+    <t>Youkoso Jitsuryoku Shijou Shugi no Kyoushitsu e</t>
+  </si>
+  <si>
+    <t>Action Heroine Cheer Fruits</t>
+  </si>
+  <si>
+    <t>Battle Girl High School</t>
+  </si>
+  <si>
+    <t>Centaur no Nayami</t>
+  </si>
+  <si>
+    <t>Hajimete no Gal</t>
+  </si>
+  <si>
+    <t>Hina Logi ~from Luck &amp; Logic~</t>
+  </si>
+  <si>
+    <t>Isekai Shokudou</t>
+  </si>
+  <si>
+    <t>Jigoku Shoujo Yoi no Togi</t>
+  </si>
+  <si>
+    <t>Knight's &amp; Magic</t>
+  </si>
+  <si>
+    <t>Nana Maru San Batsu</t>
+  </si>
+  <si>
+    <t>Princess Principal</t>
+  </si>
+  <si>
+    <t>Tenshi no 3P!</t>
+  </si>
+  <si>
+    <t>Vatican Kiseki Chouskan</t>
+  </si>
+  <si>
+    <t>3-gatsu no Lion 2</t>
+  </si>
+  <si>
+    <t>Shokugeki no Souma San no Sara</t>
+  </si>
+  <si>
+    <t>Boku no Kanojo ga Majime Sugiru Shojo Bitch na Ken</t>
+  </si>
+  <si>
+    <t>Code:Realize - Sousei no Himegimi</t>
+  </si>
+  <si>
+    <t>Imouto sae  Ireba Ii.</t>
+  </si>
+  <si>
+    <t>Love Live! Sunshine!! 2</t>
+  </si>
+  <si>
+    <t>Net-juu no Susume</t>
+  </si>
+  <si>
+    <t>Anime-Gataris</t>
+  </si>
+  <si>
+    <t>Blend S</t>
+  </si>
+  <si>
+    <t>Cardfight!! Vanguard G - Z</t>
+  </si>
+  <si>
+    <t>Gintama (Shinsaku)</t>
+  </si>
+  <si>
+    <t>Itsudatte Bokura no Koi wa 10cm datta</t>
+  </si>
+  <si>
+    <t>Just Because</t>
+  </si>
+  <si>
+    <t>Kekkai Sensen &amp; Beyond</t>
+  </si>
+  <si>
+    <t>Kino no Tabi: The Beautiful World - the Animated Series</t>
+  </si>
+  <si>
+    <t>Konohana Kitan</t>
+  </si>
+  <si>
+    <t>Kujira no Kora wa Saijou ni Utau</t>
+  </si>
+  <si>
+    <t>Two Car</t>
+  </si>
+  <si>
+    <t>Urahara</t>
+  </si>
+  <si>
+    <t>Wake Up, Girls! Shin Shou</t>
+  </si>
+  <si>
+    <t>Yuuki Yuuna wa Yuusha de Aru: Yuusha no Shou</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1793,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1761,16 +2110,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J441"/>
+  <dimension ref="A1:J557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B416" sqref="B416"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B448" sqref="B448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
@@ -10041,10 +10390,2331 @@
         <v>2016</v>
       </c>
     </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>462</v>
+      </c>
+      <c r="C442">
+        <v>3</v>
+      </c>
+      <c r="D442">
+        <v>3</v>
+      </c>
+      <c r="E442">
+        <v>3</v>
+      </c>
+      <c r="F442">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>463</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443">
+        <v>3</v>
+      </c>
+      <c r="E443">
+        <v>3</v>
+      </c>
+      <c r="F443">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>464</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444">
+        <v>3</v>
+      </c>
+      <c r="E444">
+        <v>3</v>
+      </c>
+      <c r="F444">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>465</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445">
+        <v>3</v>
+      </c>
+      <c r="E445">
+        <v>3</v>
+      </c>
+      <c r="F445">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>466</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446">
+        <v>3</v>
+      </c>
+      <c r="E446">
+        <v>3</v>
+      </c>
+      <c r="F446">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>467</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447">
+        <v>3</v>
+      </c>
+      <c r="E447">
+        <v>3</v>
+      </c>
+      <c r="F447">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>468</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448">
+        <v>3</v>
+      </c>
+      <c r="E448">
+        <v>3</v>
+      </c>
+      <c r="F448">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>469</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449">
+        <v>3</v>
+      </c>
+      <c r="E449">
+        <v>3</v>
+      </c>
+      <c r="F449">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>3</v>
+      </c>
+      <c r="E450">
+        <v>3</v>
+      </c>
+      <c r="F450">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>471</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451">
+        <v>2</v>
+      </c>
+      <c r="E451">
+        <v>3</v>
+      </c>
+      <c r="F451">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>472</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>2</v>
+      </c>
+      <c r="E452">
+        <v>3</v>
+      </c>
+      <c r="F452">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>473</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453">
+        <v>2</v>
+      </c>
+      <c r="E453">
+        <v>3</v>
+      </c>
+      <c r="F453">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>474</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <v>3</v>
+      </c>
+      <c r="F454">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>475</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455">
+        <v>3</v>
+      </c>
+      <c r="F455">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>476</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="E456">
+        <v>3</v>
+      </c>
+      <c r="F456">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>477</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>3</v>
+      </c>
+      <c r="F457">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>478</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+      <c r="E458">
+        <v>3</v>
+      </c>
+      <c r="F458">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>479</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+      <c r="E459">
+        <v>3</v>
+      </c>
+      <c r="F459">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>480</v>
+      </c>
+      <c r="C460">
+        <v>2</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+      <c r="E460">
+        <v>3</v>
+      </c>
+      <c r="F460">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>481</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461">
+        <v>3</v>
+      </c>
+      <c r="F461">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>482</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="E462">
+        <v>3</v>
+      </c>
+      <c r="F462">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>483</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>1</v>
+      </c>
+      <c r="E463">
+        <v>3</v>
+      </c>
+      <c r="F463">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>484</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464">
+        <v>3</v>
+      </c>
+      <c r="F464">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>485</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465">
+        <v>3</v>
+      </c>
+      <c r="F465">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>486</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>3</v>
+      </c>
+      <c r="F466">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>487</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+      <c r="E467">
+        <v>3</v>
+      </c>
+      <c r="F467">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>488</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>1</v>
+      </c>
+      <c r="E468">
+        <v>3</v>
+      </c>
+      <c r="F468">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>489</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>3</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>490</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>3</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>491</v>
+      </c>
+      <c r="C471">
+        <v>3</v>
+      </c>
+      <c r="D471">
+        <v>3</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>492</v>
+      </c>
+      <c r="C472">
+        <v>3</v>
+      </c>
+      <c r="D472">
+        <v>3</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>493</v>
+      </c>
+      <c r="C473">
+        <v>3</v>
+      </c>
+      <c r="D473">
+        <v>3</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>494</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474">
+        <v>3</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+      <c r="F474">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>495</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475">
+        <v>3</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>496</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476">
+        <v>2</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>497</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477">
+        <v>2</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>498</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478">
+        <v>2</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>499</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>2</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+      <c r="F479">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>500</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>2</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>501</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>2</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>502</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482">
+        <v>2</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>503</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+      <c r="F483">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>504</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>505</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>506</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>507</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>508</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+      <c r="F488">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>509</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>510</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>511</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491">
+        <v>3</v>
+      </c>
+      <c r="E491">
+        <v>1</v>
+      </c>
+      <c r="F491">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>512</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>3</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>513</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>3</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+      <c r="F493">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>514</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>3</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>515</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>2</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
+      <c r="F495">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>516</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>2</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
+      <c r="F496">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>517</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497">
+        <v>2</v>
+      </c>
+      <c r="E497">
+        <v>1</v>
+      </c>
+      <c r="F497">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>518</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>2</v>
+      </c>
+      <c r="E498">
+        <v>1</v>
+      </c>
+      <c r="F498">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>519</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499">
+        <v>2</v>
+      </c>
+      <c r="E499">
+        <v>1</v>
+      </c>
+      <c r="F499">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>520</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500">
+        <v>2</v>
+      </c>
+      <c r="E500">
+        <v>1</v>
+      </c>
+      <c r="F500">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>521</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501">
+        <v>2</v>
+      </c>
+      <c r="E501">
+        <v>1</v>
+      </c>
+      <c r="F501">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>522</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502">
+        <v>2</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="F502">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>523</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503">
+        <v>1</v>
+      </c>
+      <c r="F503">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>524</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504">
+        <v>1</v>
+      </c>
+      <c r="E504">
+        <v>1</v>
+      </c>
+      <c r="F504">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>525</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+      <c r="E505">
+        <v>1</v>
+      </c>
+      <c r="F505">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>526</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
+      <c r="F506">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>527</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
+      <c r="F507">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>528</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508">
+        <v>1</v>
+      </c>
+      <c r="F508">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>529</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+      <c r="E509">
+        <v>1</v>
+      </c>
+      <c r="F509">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>530</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+      <c r="E510">
+        <v>1</v>
+      </c>
+      <c r="F510">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>531</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
+      <c r="E511">
+        <v>1</v>
+      </c>
+      <c r="F511">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>532</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
+      <c r="F512">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>533</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+      <c r="F513">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>534</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+      <c r="F514">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>535</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515">
+        <v>1</v>
+      </c>
+      <c r="F515">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>536</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+      <c r="E516">
+        <v>1</v>
+      </c>
+      <c r="F516">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>537</v>
+      </c>
+      <c r="C517">
+        <v>1</v>
+      </c>
+      <c r="D517">
+        <v>2</v>
+      </c>
+      <c r="E517">
+        <v>2</v>
+      </c>
+      <c r="F517">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>538</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518">
+        <v>2</v>
+      </c>
+      <c r="E518">
+        <v>2</v>
+      </c>
+      <c r="F518">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>539</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519">
+        <v>2</v>
+      </c>
+      <c r="E519">
+        <v>2</v>
+      </c>
+      <c r="F519">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>540</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520">
+        <v>2</v>
+      </c>
+      <c r="E520">
+        <v>2</v>
+      </c>
+      <c r="F520">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>541</v>
+      </c>
+      <c r="C521">
+        <v>1</v>
+      </c>
+      <c r="D521">
+        <v>2</v>
+      </c>
+      <c r="E521">
+        <v>2</v>
+      </c>
+      <c r="F521">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>542</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+      <c r="D522">
+        <v>2</v>
+      </c>
+      <c r="E522">
+        <v>2</v>
+      </c>
+      <c r="F522">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>543</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523">
+        <v>2</v>
+      </c>
+      <c r="E523">
+        <v>2</v>
+      </c>
+      <c r="F523">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>544</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524">
+        <v>2</v>
+      </c>
+      <c r="E524">
+        <v>2</v>
+      </c>
+      <c r="F524">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>545</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525">
+        <v>2</v>
+      </c>
+      <c r="F525">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>546</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+      <c r="E526">
+        <v>2</v>
+      </c>
+      <c r="F526">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527" t="s">
+        <v>547</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+      <c r="E527">
+        <v>2</v>
+      </c>
+      <c r="F527">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>548</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+      <c r="E528">
+        <v>2</v>
+      </c>
+      <c r="F528">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529" t="s">
+        <v>549</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529">
+        <v>1</v>
+      </c>
+      <c r="E529">
+        <v>2</v>
+      </c>
+      <c r="F529">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>550</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
+      <c r="E530">
+        <v>2</v>
+      </c>
+      <c r="F530">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>551</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531">
+        <v>1</v>
+      </c>
+      <c r="E531">
+        <v>2</v>
+      </c>
+      <c r="F531">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>552</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+      <c r="E532">
+        <v>2</v>
+      </c>
+      <c r="F532">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>553</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+      <c r="E533">
+        <v>2</v>
+      </c>
+      <c r="F533">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>554</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534">
+        <v>1</v>
+      </c>
+      <c r="E534">
+        <v>2</v>
+      </c>
+      <c r="F534">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>555</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535">
+        <v>2</v>
+      </c>
+      <c r="F535">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>556</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536">
+        <v>1</v>
+      </c>
+      <c r="E536">
+        <v>2</v>
+      </c>
+      <c r="F536">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>557</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537">
+        <v>3</v>
+      </c>
+      <c r="E537">
+        <v>3</v>
+      </c>
+      <c r="F537">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>558</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538">
+        <v>3</v>
+      </c>
+      <c r="E538">
+        <v>3</v>
+      </c>
+      <c r="F538">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>559</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+      <c r="D539">
+        <v>2</v>
+      </c>
+      <c r="E539">
+        <v>3</v>
+      </c>
+      <c r="F539">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>560</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540">
+        <v>2</v>
+      </c>
+      <c r="E540">
+        <v>3</v>
+      </c>
+      <c r="F540">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>561</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541">
+        <v>2</v>
+      </c>
+      <c r="E541">
+        <v>3</v>
+      </c>
+      <c r="F541">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>562</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542">
+        <v>2</v>
+      </c>
+      <c r="E542">
+        <v>3</v>
+      </c>
+      <c r="F542">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>563</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543">
+        <v>2</v>
+      </c>
+      <c r="E543">
+        <v>3</v>
+      </c>
+      <c r="F543">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
+        <v>564</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544">
+        <v>3</v>
+      </c>
+      <c r="F544">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545" t="s">
+        <v>565</v>
+      </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+      <c r="E545">
+        <v>3</v>
+      </c>
+      <c r="F545">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546" t="s">
+        <v>566</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+      <c r="D546">
+        <v>1</v>
+      </c>
+      <c r="E546">
+        <v>3</v>
+      </c>
+      <c r="F546">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>567</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547">
+        <v>1</v>
+      </c>
+      <c r="E547">
+        <v>3</v>
+      </c>
+      <c r="F547">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548" t="s">
+        <v>568</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
+      </c>
+      <c r="E548">
+        <v>3</v>
+      </c>
+      <c r="F548">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549" t="s">
+        <v>569</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
+      </c>
+      <c r="E549">
+        <v>3</v>
+      </c>
+      <c r="F549">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550" t="s">
+        <v>570</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+      <c r="D550">
+        <v>1</v>
+      </c>
+      <c r="E550">
+        <v>3</v>
+      </c>
+      <c r="F550">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>571</v>
+      </c>
+      <c r="C551">
+        <v>1</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+      <c r="E551">
+        <v>3</v>
+      </c>
+      <c r="F551">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>572</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552">
+        <v>3</v>
+      </c>
+      <c r="F552">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>573</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+      <c r="E553">
+        <v>3</v>
+      </c>
+      <c r="F553">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>574</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="E554">
+        <v>3</v>
+      </c>
+      <c r="F554">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
+        <v>575</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
+      </c>
+      <c r="E555">
+        <v>3</v>
+      </c>
+      <c r="F555">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>554</v>
+      </c>
+      <c r="B556" t="s">
+        <v>576</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556">
+        <v>3</v>
+      </c>
+      <c r="F556">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>555</v>
+      </c>
+      <c r="B557" t="s">
+        <v>577</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="E557">
+        <v>3</v>
+      </c>
+      <c r="F557">
+        <v>2017</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A3:D104">
     <sortCondition ref="B3:B104"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/resources/database/data/downloads/db_download - staging data.xlsx
+++ b/resources/database/data/downloads/db_download - staging data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="24000" windowHeight="9495"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="24000" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -707,9 +707,6 @@
     <t>Oneechan ga Kita</t>
   </si>
   <si>
-    <t>Mikakunin de Shinkōkei</t>
-  </si>
-  <si>
     <t>Tonari no Seki-kun</t>
   </si>
   <si>
@@ -956,9 +953,6 @@
     <t>Chuunibyou demo Koi ga Shitai II</t>
   </si>
   <si>
-    <t>Saikin, Imōto no Yōsu ga Chotto Okaishiin Da Ga.</t>
-  </si>
-  <si>
     <t>Witch Craft Works</t>
   </si>
   <si>
@@ -1758,6 +1752,12 @@
   </si>
   <si>
     <t>Yuuki Yuuna wa Yuusha de Aru: Yuusha no Shou</t>
+  </si>
+  <si>
+    <t>Mikakunin de Shinkoukei</t>
+  </si>
+  <si>
+    <t>Saikin, Imouto no Yousu ga Chotto Okaishiin Da Ga.</t>
   </si>
 </sst>
 </file>
@@ -2113,8 +2113,8 @@
   <dimension ref="A1:J557"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B448" sqref="B448"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="A3:G557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,10 +2141,10 @@
         <v>142</v>
       </c>
       <c r="E1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -5726,7 +5726,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -5746,7 +5746,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>310</v>
+        <v>577</v>
       </c>
       <c r="C210">
         <v>3</v>
@@ -5766,7 +5766,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C211">
         <v>3</v>
@@ -5786,7 +5786,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C212">
         <v>3</v>
@@ -5806,7 +5806,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C213">
         <v>3</v>
@@ -5826,7 +5826,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C214">
         <v>3</v>
@@ -5886,7 +5886,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>227</v>
+        <v>576</v>
       </c>
       <c r="C217">
         <v>3</v>
@@ -5906,7 +5906,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C218">
         <v>2</v>
@@ -5926,7 +5926,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -5946,7 +5946,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -5966,7 +5966,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C221">
         <v>3</v>
@@ -5986,7 +5986,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -6006,7 +6006,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -6026,7 +6026,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -6046,7 +6046,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -6066,7 +6066,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -6086,7 +6086,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -6106,7 +6106,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -6126,7 +6126,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -6166,7 +6166,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -6206,7 +6206,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -6226,7 +6226,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -6246,7 +6246,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C235">
         <v>3</v>
@@ -6266,7 +6266,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C236">
         <v>3</v>
@@ -6286,7 +6286,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C237">
         <v>3</v>
@@ -6306,7 +6306,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C238">
         <v>3</v>
@@ -6326,7 +6326,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C239">
         <v>3</v>
@@ -6346,7 +6346,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C240">
         <v>3</v>
@@ -6366,7 +6366,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C241">
         <v>3</v>
@@ -6386,7 +6386,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C242">
         <v>3</v>
@@ -6406,7 +6406,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -6426,7 +6426,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -6446,7 +6446,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -6461,7 +6461,7 @@
         <v>2014</v>
       </c>
       <c r="G245" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6469,7 +6469,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -6489,7 +6489,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -6509,7 +6509,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -6529,7 +6529,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -6549,7 +6549,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -6569,7 +6569,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -6589,7 +6589,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -6609,7 +6609,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -6629,7 +6629,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -6649,7 +6649,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -6689,7 +6689,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -6709,7 +6709,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -6729,7 +6729,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -6749,7 +6749,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -6769,7 +6769,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -6789,7 +6789,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C262">
         <v>3</v>
@@ -6809,7 +6809,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C263">
         <v>3</v>
@@ -6829,7 +6829,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C264">
         <v>3</v>
@@ -6849,7 +6849,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C265">
         <v>3</v>
@@ -6869,7 +6869,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C266">
         <v>3</v>
@@ -6889,7 +6889,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C267">
         <v>3</v>
@@ -6909,7 +6909,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C268">
         <v>3</v>
@@ -6929,7 +6929,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -6949,7 +6949,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C270">
         <v>2</v>
@@ -6969,7 +6969,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C271">
         <v>3</v>
@@ -6989,7 +6989,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -7009,7 +7009,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -7049,7 +7049,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C275">
         <v>3</v>
@@ -7069,7 +7069,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -7084,7 +7084,7 @@
         <v>2014</v>
       </c>
       <c r="G276" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -7092,7 +7092,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -7112,7 +7112,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -7132,7 +7132,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -7152,7 +7152,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -7172,7 +7172,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -7192,7 +7192,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C282">
         <v>3</v>
@@ -7212,7 +7212,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C283">
         <v>3</v>
@@ -7232,7 +7232,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C284">
         <v>3</v>
@@ -7252,7 +7252,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C285">
         <v>3</v>
@@ -7272,7 +7272,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C286">
         <v>3</v>
@@ -7292,7 +7292,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C287">
         <v>3</v>
@@ -7312,7 +7312,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C288">
         <v>3</v>
@@ -7332,7 +7332,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -7352,7 +7352,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -7372,7 +7372,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -7392,7 +7392,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -7412,7 +7412,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -7432,7 +7432,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C294">
         <v>3</v>
@@ -7452,7 +7452,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -7472,7 +7472,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C296">
         <v>3</v>
@@ -7492,7 +7492,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -7512,7 +7512,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -7532,7 +7532,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C299">
         <v>3</v>
@@ -7552,7 +7552,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C300">
         <v>1</v>
@@ -7572,7 +7572,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C301">
         <v>1</v>
@@ -7592,7 +7592,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -7612,7 +7612,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -7632,7 +7632,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -7652,7 +7652,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -7672,7 +7672,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C306">
         <v>3</v>
@@ -7692,7 +7692,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -7712,7 +7712,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -7732,7 +7732,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -7752,7 +7752,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -7772,7 +7772,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C311">
         <v>1</v>
@@ -7792,7 +7792,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C312">
         <v>1</v>
@@ -7812,7 +7812,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C313">
         <v>1</v>
@@ -7832,7 +7832,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C314">
         <v>1</v>
@@ -7852,7 +7852,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C315">
         <v>1</v>
@@ -7872,7 +7872,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -7892,7 +7892,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -7912,7 +7912,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -7932,7 +7932,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C319">
         <v>1</v>
@@ -7952,7 +7952,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C320">
         <v>1</v>
@@ -7972,7 +7972,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C321">
         <v>3</v>
@@ -7992,7 +7992,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C322">
         <v>1</v>
@@ -8012,7 +8012,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -8032,7 +8032,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C324">
         <v>1</v>
@@ -8052,7 +8052,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C325">
         <v>2</v>
@@ -8072,7 +8072,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C326">
         <v>3</v>
@@ -8092,7 +8092,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C327">
         <v>3</v>
@@ -8112,7 +8112,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C328">
         <v>3</v>
@@ -8132,7 +8132,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C329">
         <v>3</v>
@@ -8152,7 +8152,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C330">
         <v>1</v>
@@ -8172,7 +8172,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C331">
         <v>1</v>
@@ -8192,7 +8192,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -8212,7 +8212,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C333">
         <v>1</v>
@@ -8232,7 +8232,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C334">
         <v>3</v>
@@ -8252,7 +8252,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C335">
         <v>3</v>
@@ -8272,7 +8272,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C336">
         <v>1</v>
@@ -8292,7 +8292,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C337">
         <v>3</v>
@@ -8312,7 +8312,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -8332,7 +8332,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C339">
         <v>1</v>
@@ -8352,7 +8352,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -8372,7 +8372,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C341">
         <v>1</v>
@@ -8392,7 +8392,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C342">
         <v>1</v>
@@ -8412,7 +8412,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C343">
         <v>1</v>
@@ -8432,7 +8432,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -8452,7 +8452,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -8472,7 +8472,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C346">
         <v>1</v>
@@ -8492,7 +8492,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -8512,7 +8512,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -8532,7 +8532,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C349">
         <v>1</v>
@@ -8552,7 +8552,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C350">
         <v>1</v>
@@ -8572,7 +8572,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C351">
         <v>1</v>
@@ -8592,7 +8592,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -8612,7 +8612,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C353">
         <v>3</v>
@@ -8632,7 +8632,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -8652,7 +8652,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C355">
         <v>2</v>
@@ -8672,7 +8672,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C356">
         <v>1</v>
@@ -8692,7 +8692,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C357">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -8732,7 +8732,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C359">
         <v>1</v>
@@ -8752,7 +8752,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -8772,7 +8772,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -8792,7 +8792,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C362">
         <v>1</v>
@@ -8812,7 +8812,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -8832,7 +8832,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -8852,7 +8852,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C365">
         <v>1</v>
@@ -8872,7 +8872,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -8892,7 +8892,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C367">
         <v>1</v>
@@ -8912,7 +8912,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -8952,7 +8952,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -8972,7 +8972,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C371">
         <v>1</v>
@@ -8992,7 +8992,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -9032,7 +9032,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C374">
         <v>1</v>
@@ -9052,7 +9052,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -9072,7 +9072,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -9092,7 +9092,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C378">
         <v>1</v>
@@ -9132,7 +9132,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C379">
         <v>1</v>
@@ -9152,7 +9152,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C381">
         <v>2</v>
@@ -9192,7 +9192,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -9212,7 +9212,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -9232,7 +9232,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -9252,7 +9252,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C385">
         <v>1</v>
@@ -9272,7 +9272,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C386">
         <v>1</v>
@@ -9292,7 +9292,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C387">
         <v>1</v>
@@ -9312,7 +9312,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C388">
         <v>3</v>
@@ -9332,7 +9332,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -9352,7 +9352,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C390">
         <v>1</v>
@@ -9372,7 +9372,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C391">
         <v>1</v>
@@ -9392,7 +9392,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C392">
         <v>1</v>
@@ -9412,7 +9412,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C393">
         <v>1</v>
@@ -9432,7 +9432,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -9452,7 +9452,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C395">
         <v>1</v>
@@ -9472,7 +9472,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C396">
         <v>1</v>
@@ -9492,7 +9492,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C397">
         <v>1</v>
@@ -9512,7 +9512,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C398">
         <v>1</v>
@@ -9532,7 +9532,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -9552,7 +9552,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -9572,7 +9572,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -9612,7 +9612,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C404">
         <v>1</v>
@@ -9652,7 +9652,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C405">
         <v>1</v>
@@ -9672,7 +9672,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -9692,7 +9692,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -9712,7 +9712,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -9732,7 +9732,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -9752,7 +9752,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -9772,7 +9772,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -9792,7 +9792,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -9812,7 +9812,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -9832,7 +9832,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -9852,7 +9852,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -9872,7 +9872,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -9892,7 +9892,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -9912,7 +9912,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -9932,7 +9932,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -9952,7 +9952,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -9972,7 +9972,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C421">
         <v>2</v>
@@ -9992,7 +9992,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -10007,7 +10007,7 @@
         <v>2016</v>
       </c>
       <c r="G422" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -10015,7 +10015,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -10035,7 +10035,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -10055,7 +10055,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -10075,7 +10075,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -10095,7 +10095,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -10115,7 +10115,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -10135,7 +10135,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -10155,7 +10155,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -10175,7 +10175,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -10195,7 +10195,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -10215,7 +10215,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -10235,7 +10235,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -10255,7 +10255,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C435">
         <v>1</v>
@@ -10275,7 +10275,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -10295,7 +10295,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -10315,7 +10315,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C438">
         <v>3</v>
@@ -10335,7 +10335,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -10355,7 +10355,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -10375,7 +10375,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -10395,7 +10395,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C442">
         <v>3</v>
@@ -10415,7 +10415,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -10435,7 +10435,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -10455,7 +10455,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -10475,7 +10475,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -10495,7 +10495,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -10515,7 +10515,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -10535,7 +10535,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -10555,7 +10555,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -10575,7 +10575,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -10595,7 +10595,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C452">
         <v>1</v>
@@ -10615,7 +10615,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -10635,7 +10635,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -10655,7 +10655,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -10675,7 +10675,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -10695,7 +10695,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C457">
         <v>1</v>
@@ -10715,7 +10715,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -10735,7 +10735,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C459">
         <v>1</v>
@@ -10755,7 +10755,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C460">
         <v>2</v>
@@ -10775,7 +10775,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -10795,7 +10795,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -10815,7 +10815,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -10835,7 +10835,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -10855,7 +10855,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -10875,7 +10875,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C466">
         <v>1</v>
@@ -10895,7 +10895,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -10915,7 +10915,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -10935,7 +10935,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -10955,7 +10955,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -10975,7 +10975,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C471">
         <v>3</v>
@@ -10995,7 +10995,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C472">
         <v>3</v>
@@ -11015,7 +11015,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C473">
         <v>3</v>
@@ -11035,7 +11035,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C474">
         <v>1</v>
@@ -11055,7 +11055,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -11075,7 +11075,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -11095,7 +11095,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C477">
         <v>1</v>
@@ -11115,7 +11115,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -11135,7 +11135,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -11155,7 +11155,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -11175,7 +11175,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -11195,7 +11195,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -11215,7 +11215,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -11235,7 +11235,7 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -11255,7 +11255,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -11275,7 +11275,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -11295,7 +11295,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -11315,7 +11315,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -11335,7 +11335,7 @@
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -11355,7 +11355,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -11375,7 +11375,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -11395,7 +11395,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -11415,7 +11415,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -11435,7 +11435,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -11455,7 +11455,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -11475,7 +11475,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C496">
         <v>1</v>
@@ -11495,7 +11495,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -11515,7 +11515,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -11535,7 +11535,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -11555,7 +11555,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -11575,7 +11575,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C501">
         <v>1</v>
@@ -11595,7 +11595,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C502">
         <v>1</v>
@@ -11615,7 +11615,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -11635,7 +11635,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -11655,7 +11655,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -11675,7 +11675,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C506">
         <v>1</v>
@@ -11695,7 +11695,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C507">
         <v>1</v>
@@ -11715,7 +11715,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -11735,7 +11735,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C509">
         <v>1</v>
@@ -11755,7 +11755,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C510">
         <v>1</v>
@@ -11775,7 +11775,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C511">
         <v>1</v>
@@ -11795,7 +11795,7 @@
         <v>510</v>
       </c>
       <c r="B512" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -11815,7 +11815,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C513">
         <v>1</v>
@@ -11835,7 +11835,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -11855,7 +11855,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C515">
         <v>1</v>
@@ -11875,7 +11875,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C516">
         <v>1</v>
@@ -11895,7 +11895,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -11915,7 +11915,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -11935,7 +11935,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -11955,7 +11955,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C520">
         <v>1</v>
@@ -11975,7 +11975,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C521">
         <v>1</v>
@@ -11995,7 +11995,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -12015,7 +12015,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -12035,7 +12035,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C524">
         <v>1</v>
@@ -12055,7 +12055,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C525">
         <v>1</v>
@@ -12075,7 +12075,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C526">
         <v>1</v>
@@ -12095,7 +12095,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C527">
         <v>1</v>
@@ -12115,7 +12115,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C528">
         <v>1</v>
@@ -12135,7 +12135,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C529">
         <v>1</v>
@@ -12155,7 +12155,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C530">
         <v>1</v>
@@ -12175,7 +12175,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C531">
         <v>1</v>
@@ -12195,7 +12195,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C532">
         <v>1</v>
@@ -12215,7 +12215,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C533">
         <v>1</v>
@@ -12235,7 +12235,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C534">
         <v>1</v>
@@ -12255,7 +12255,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C535">
         <v>1</v>
@@ -12275,7 +12275,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C536">
         <v>1</v>
@@ -12295,7 +12295,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C537">
         <v>1</v>
@@ -12315,7 +12315,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C538">
         <v>1</v>
@@ -12335,7 +12335,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C539">
         <v>1</v>
@@ -12355,7 +12355,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C540">
         <v>1</v>
@@ -12375,7 +12375,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C541">
         <v>1</v>
@@ -12395,7 +12395,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C542">
         <v>1</v>
@@ -12415,7 +12415,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C543">
         <v>1</v>
@@ -12435,7 +12435,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C544">
         <v>1</v>
@@ -12455,7 +12455,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C545">
         <v>1</v>
@@ -12475,7 +12475,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C546">
         <v>1</v>
@@ -12495,7 +12495,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C547">
         <v>1</v>
@@ -12515,7 +12515,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C548">
         <v>1</v>
@@ -12535,7 +12535,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C549">
         <v>1</v>
@@ -12555,7 +12555,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C550">
         <v>1</v>
@@ -12575,7 +12575,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C551">
         <v>1</v>
@@ -12595,7 +12595,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C552">
         <v>1</v>
@@ -12615,7 +12615,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C553">
         <v>1</v>
@@ -12635,7 +12635,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C554">
         <v>1</v>
@@ -12655,7 +12655,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C555">
         <v>1</v>
@@ -12675,7 +12675,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C556">
         <v>1</v>
@@ -12695,7 +12695,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C557">
         <v>1</v>
